--- a/Nob.xlsx
+++ b/Nob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nob\Documents\Workspace\AnaliseFinanceira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD337E6-7CD6-4889-B72C-ED88EAAB0F70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CA6CE2-1E62-498D-8EB1-6E427D6F1F5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,11 +19,11 @@
     <sheet name="Planilha3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Operacoes!$A$2:$L$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Operacoes!$A$2:$L$130</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="218">
   <si>
     <t>XPIN11</t>
   </si>
@@ -616,6 +616,84 @@
   </si>
   <si>
     <t>AESB3</t>
+  </si>
+  <si>
+    <t>PRIO3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	PETRORIO ON NM</t>
+  </si>
+  <si>
+    <t>WEGE3</t>
+  </si>
+  <si>
+    <t>WEG ON NM</t>
+  </si>
+  <si>
+    <t>AURA33</t>
+  </si>
+  <si>
+    <t>AURA 360 DR3</t>
+  </si>
+  <si>
+    <t>PETZ3</t>
+  </si>
+  <si>
+    <t>A1MD34</t>
+  </si>
+  <si>
+    <t>ADVANCED MIC DRN</t>
+  </si>
+  <si>
+    <t>PETZ ON NM</t>
+  </si>
+  <si>
+    <t>IVVB11</t>
+  </si>
+  <si>
+    <t>ISHARE SP500 CI</t>
+  </si>
+  <si>
+    <t>AMZO34</t>
+  </si>
+  <si>
+    <t>AMAZON DRN</t>
+  </si>
+  <si>
+    <t>SALESFORCE DRN</t>
+  </si>
+  <si>
+    <t>SSFO34</t>
+  </si>
+  <si>
+    <t>NETFLIX DRN</t>
+  </si>
+  <si>
+    <t>NFLX34</t>
+  </si>
+  <si>
+    <t>HAPV3</t>
+  </si>
+  <si>
+    <t>HAPVIDA ON NM</t>
+  </si>
+  <si>
+    <t>AAPL34</t>
+  </si>
+  <si>
+    <t>APPLE DRN</t>
+  </si>
+  <si>
+    <t>XINA11</t>
+  </si>
+  <si>
+    <t>TREND CHINA CI</t>
+  </si>
+  <si>
+    <t>BPAC11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	BTGP BANCO UNT N2</t>
   </si>
 </sst>
 </file>
@@ -731,7 +809,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -760,6 +838,7 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -849,7 +928,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rogerio Endo" refreshedDate="44197.640975000002" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="116" xr:uid="{00000000-000A-0000-FFFF-FFFF35000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A2:P500" sheet="Operacoes"/>
+    <worksheetSource ref="A2:P513" sheet="Operacoes"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="Data" numFmtId="0">
@@ -3068,7 +3147,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -6040,10 +6119,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:P117"/>
+  <dimension ref="A2:P130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6103,6116 +6182,6584 @@
         <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="13">
+        <v>100</v>
+      </c>
+      <c r="I3" s="17">
+        <v>88.93</v>
+      </c>
+      <c r="J3" s="18">
+        <v>8893</v>
+      </c>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="13">
+        <v>100</v>
+      </c>
+      <c r="I4" s="17">
+        <v>72.319999999999993</v>
+      </c>
+      <c r="J4" s="18">
+        <v>7232</v>
+      </c>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="13">
+        <v>50</v>
+      </c>
+      <c r="I5" s="17">
+        <v>59.91</v>
+      </c>
+      <c r="J5" s="18">
+        <v>2995.5</v>
+      </c>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="13">
+        <v>100</v>
+      </c>
+      <c r="I6" s="17">
+        <v>20.03</v>
+      </c>
+      <c r="J6" s="18">
+        <v>2003</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="13">
+        <v>5</v>
+      </c>
+      <c r="I7" s="17">
+        <v>464.55</v>
+      </c>
+      <c r="J7" s="18">
+        <v>2322.75</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+    </row>
+    <row r="8" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="13">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17">
+        <v>237.67</v>
+      </c>
+      <c r="J8" s="18">
+        <v>2376.6999999999998</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+    </row>
+    <row r="9" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="13">
+        <v>50</v>
+      </c>
+      <c r="I9" s="17">
+        <v>113.96</v>
+      </c>
+      <c r="J9" s="18">
+        <v>5698</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+    </row>
+    <row r="10" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="13">
+        <v>100</v>
+      </c>
+      <c r="I10" s="17">
+        <v>56.49</v>
+      </c>
+      <c r="J10" s="18">
+        <v>5649</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+    </row>
+    <row r="11" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="13">
+        <v>100</v>
+      </c>
+      <c r="I11" s="17">
+        <v>62</v>
+      </c>
+      <c r="J11" s="18">
+        <v>6200</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="13">
+        <v>200</v>
+      </c>
+      <c r="I12" s="17">
+        <v>15.63</v>
+      </c>
+      <c r="J12" s="18">
+        <v>3126</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+    </row>
+    <row r="13" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="13">
+        <v>100</v>
+      </c>
+      <c r="I13" s="17">
+        <v>67.39</v>
+      </c>
+      <c r="J13" s="18">
+        <v>6739</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+    </row>
+    <row r="14" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="13">
+        <v>300</v>
+      </c>
+      <c r="I14" s="17">
+        <v>12.12</v>
+      </c>
+      <c r="J14" s="18">
+        <v>3636</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+    </row>
+    <row r="15" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="13">
+        <v>100</v>
+      </c>
+      <c r="I15" s="17">
+        <v>103.1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>10310</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>44025</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B16" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D16" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E16" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F16" t="s">
         <v>111</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H3">
+      <c r="H16">
         <v>100</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I16" s="17">
         <v>34.299999999999997</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J16" s="17">
         <v>3430</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K16" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L16" s="17">
         <v>33.75</v>
       </c>
-      <c r="M3" s="17">
-        <f t="shared" ref="M3:M34" si="0">H3*L3</f>
+      <c r="M16" s="17">
+        <f t="shared" ref="M16:M47" si="0">H16*L16</f>
         <v>3375</v>
       </c>
-      <c r="N3" s="17">
+      <c r="N16" s="17">
         <v>72.852142271550008</v>
       </c>
-      <c r="O3" s="17">
-        <f t="shared" ref="O3:O34" si="1">M3-J3</f>
+      <c r="O16" s="17">
+        <f t="shared" ref="O16:O47" si="1">M16-J16</f>
         <v>-55</v>
       </c>
-      <c r="P3" s="12">
-        <f t="shared" ref="P3:P34" si="2">O3/J3</f>
+      <c r="P16" s="12">
+        <f t="shared" ref="P16:P47" si="2">O16/J16</f>
         <v>-1.6034985422740525E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>44025</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B17" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C17" t="s">
         <v>109</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D17" t="s">
         <v>110</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F17" t="s">
         <v>113</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G17" t="s">
         <v>43</v>
       </c>
-      <c r="H4">
+      <c r="H17">
         <v>100</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I17" s="17">
         <v>43.05</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J17" s="17">
         <v>4305</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K17" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L17" s="17">
         <v>45.900001525878913</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M17" s="17">
         <f t="shared" si="0"/>
         <v>4590.0001525878915</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N17" s="17">
         <v>151.013407</v>
       </c>
-      <c r="O4" s="17">
+      <c r="O17" s="17">
         <f t="shared" si="1"/>
         <v>285.00015258789153</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P17" s="12">
         <f t="shared" si="2"/>
         <v>6.6202126036676315E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>44025</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C18" t="s">
         <v>109</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D18" t="s">
         <v>110</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E18" t="s">
         <v>69</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F18" t="s">
         <v>114</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G18" t="s">
         <v>43</v>
       </c>
-      <c r="H5">
+      <c r="H18">
         <v>200</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I18" s="17">
         <v>17.8</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J18" s="17">
         <v>3560</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K18" t="s">
         <v>112</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L18" s="17">
         <v>18.920000076293949</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M18" s="17">
         <f t="shared" si="0"/>
         <v>3784.00001525879</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N18" s="17">
         <v>0</v>
       </c>
-      <c r="O5" s="17">
+      <c r="O18" s="17">
         <f t="shared" si="1"/>
         <v>224.00001525878997</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P18" s="12">
         <f t="shared" si="2"/>
         <v>6.29213526007837E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>44025</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B19" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C19" t="s">
         <v>109</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D19" t="s">
         <v>110</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F19" t="s">
         <v>115</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G19" t="s">
         <v>116</v>
       </c>
-      <c r="H6">
+      <c r="H19">
         <v>20</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I19" s="17">
         <v>61.29</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J19" s="17">
         <v>1225.8</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K19" t="s">
         <v>112</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L19" s="17">
         <v>65.010002136230469</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M19" s="17">
         <f t="shared" si="0"/>
         <v>1300.2000427246094</v>
       </c>
-      <c r="N6" s="17">
+      <c r="N19" s="17">
         <v>25.8</v>
       </c>
-      <c r="O6" s="17">
+      <c r="O19" s="17">
         <f t="shared" si="1"/>
         <v>74.40004272460942</v>
       </c>
-      <c r="P6" s="12">
+      <c r="P19" s="12">
         <f t="shared" si="2"/>
         <v>6.0695091144240022E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>44025</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E20" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F20" t="s">
         <v>117</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G20" t="s">
         <v>116</v>
       </c>
-      <c r="H7">
+      <c r="H20">
         <v>6</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I20" s="17">
         <v>205</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J20" s="17">
         <v>1230</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K20" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L20" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M20" s="17">
         <f t="shared" si="0"/>
         <v>1296.1799926757815</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N20" s="17">
         <v>19.559999999999999</v>
       </c>
-      <c r="O7" s="17">
+      <c r="O20" s="17">
         <f t="shared" si="1"/>
         <v>66.179992675781477</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P20" s="12">
         <f t="shared" si="2"/>
         <v>5.3804872094131283E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>44025</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B21" t="s">
         <v>108</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C21" t="s">
         <v>109</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D21" t="s">
         <v>110</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E21" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F21" t="s">
         <v>117</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G21" t="s">
         <v>116</v>
       </c>
-      <c r="H8">
+      <c r="H21">
         <v>4</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I21" s="17">
         <v>205</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J21" s="17">
         <v>820</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K21" t="s">
         <v>112</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L21" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M21" s="17">
         <f t="shared" si="0"/>
         <v>864.11999511718761</v>
       </c>
-      <c r="N8" s="17">
+      <c r="N21" s="17">
         <v>13.04</v>
       </c>
-      <c r="O8" s="17">
+      <c r="O21" s="17">
         <f t="shared" si="1"/>
         <v>44.119995117187614</v>
       </c>
-      <c r="P8" s="12">
+      <c r="P21" s="12">
         <f t="shared" si="2"/>
         <v>5.3804872094131234E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>44025</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B22" t="s">
         <v>108</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C22" t="s">
         <v>109</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D22" t="s">
         <v>110</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E22" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F22" t="s">
         <v>118</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G22" t="s">
         <v>43</v>
       </c>
-      <c r="H9">
+      <c r="H22">
         <v>100</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I22" s="17">
         <v>14.8</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J22" s="17">
         <v>1480</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K22" t="s">
         <v>112</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L22" s="17">
         <v>21.020000457763668</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M22" s="17">
         <f t="shared" si="0"/>
         <v>2102.0000457763667</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N22" s="17">
         <v>29.0883617442</v>
       </c>
-      <c r="O9" s="17">
+      <c r="O22" s="17">
         <f t="shared" si="1"/>
         <v>622.00004577636673</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P22" s="12">
         <f t="shared" si="2"/>
         <v>0.42027030120024778</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>44025</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B23" t="s">
         <v>108</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C23" t="s">
         <v>109</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D23" t="s">
         <v>110</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F23" t="s">
         <v>119</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G23" t="s">
         <v>43</v>
       </c>
-      <c r="H10">
+      <c r="H23">
         <v>14</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I23" s="17">
         <v>106.15</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J23" s="17">
         <v>1486.1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K23" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L23" s="17">
         <v>116.5</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M23" s="17">
         <f t="shared" si="0"/>
         <v>1631</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N23" s="17">
         <v>35.07</v>
       </c>
-      <c r="O10" s="17">
+      <c r="O23" s="17">
         <f t="shared" si="1"/>
         <v>144.90000000000009</v>
       </c>
-      <c r="P10" s="12">
+      <c r="P23" s="12">
         <f t="shared" si="2"/>
         <v>9.7503532736693432E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>44025</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B24" t="s">
         <v>108</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C24" t="s">
         <v>109</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D24" t="s">
         <v>110</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E24" t="s">
         <v>36</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F24" t="s">
         <v>120</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G24" t="s">
         <v>116</v>
       </c>
-      <c r="H11">
+      <c r="H24">
         <v>20</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I24" s="17">
         <v>104.5</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J24" s="17">
         <v>2090</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K24" t="s">
         <v>112</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L24" s="17">
         <v>113.5</v>
       </c>
-      <c r="M11" s="17">
+      <c r="M24" s="17">
         <f t="shared" si="0"/>
         <v>2270</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N24" s="17">
         <v>48.667136540000001</v>
       </c>
-      <c r="O11" s="17">
+      <c r="O24" s="17">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="P11" s="12">
+      <c r="P24" s="12">
         <f t="shared" si="2"/>
         <v>8.6124401913875603E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>44054</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C25" t="s">
         <v>109</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D25" t="s">
         <v>110</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E25" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F25" t="s">
         <v>121</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G25" t="s">
         <v>116</v>
       </c>
-      <c r="H12">
+      <c r="H25">
         <v>10</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I25" s="17">
         <v>208</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J25" s="17">
         <v>2080</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K25" t="s">
         <v>112</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L25" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M25" s="17">
         <f t="shared" si="0"/>
         <v>2160.2999877929692</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N25" s="17">
         <v>30.1</v>
       </c>
-      <c r="O12" s="17">
+      <c r="O25" s="17">
         <f t="shared" si="1"/>
         <v>80.299987792969205</v>
       </c>
-      <c r="P12" s="12">
+      <c r="P25" s="12">
         <f t="shared" si="2"/>
         <v>3.8605763362004428E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>44021</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B26" t="s">
         <v>108</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C26" t="s">
         <v>109</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D26" t="s">
         <v>110</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F26" t="s">
         <v>122</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G26" t="s">
         <v>116</v>
       </c>
-      <c r="H13">
+      <c r="H26">
         <v>10</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I26" s="17">
         <v>62.78</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J26" s="17">
         <v>627.79999999999995</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K26" t="s">
         <v>112</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L26" s="17">
         <v>65.010002136230469</v>
       </c>
-      <c r="M13" s="17">
+      <c r="M26" s="17">
         <f t="shared" si="0"/>
         <v>650.10002136230469</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N26" s="17">
         <v>12.9</v>
       </c>
-      <c r="O13" s="17">
+      <c r="O26" s="17">
         <f t="shared" si="1"/>
         <v>22.300021362304733</v>
       </c>
-      <c r="P13" s="12">
+      <c r="P26" s="12">
         <f t="shared" si="2"/>
         <v>3.5520900545244878E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>44020</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B27" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C27" t="s">
         <v>109</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D27" t="s">
         <v>110</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E27" t="s">
         <v>68</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F27" t="s">
         <v>123</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G27" t="s">
         <v>43</v>
       </c>
-      <c r="H14">
+      <c r="H27">
         <v>100</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I27" s="17">
         <v>11.03</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J27" s="17">
         <v>1103</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K27" t="s">
         <v>112</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L27" s="17">
         <v>12.85999965667725</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M27" s="17">
         <f t="shared" si="0"/>
         <v>1285.9999656677251</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N27" s="17">
         <v>0</v>
       </c>
-      <c r="O14" s="17">
+      <c r="O27" s="17">
         <f t="shared" si="1"/>
         <v>182.99996566772506</v>
       </c>
-      <c r="P14" s="12">
+      <c r="P27" s="12">
         <f t="shared" si="2"/>
         <v>0.16591112027898919</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>44020</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B28" t="s">
         <v>108</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C28" t="s">
         <v>109</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E28" t="s">
         <v>18</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F28" t="s">
         <v>121</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G28" t="s">
         <v>116</v>
       </c>
-      <c r="H15">
+      <c r="H28">
         <v>2</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I28" s="17">
         <v>203.1</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J28" s="17">
         <v>406.2</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K28" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L28" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M15" s="17">
+      <c r="M28" s="17">
         <f t="shared" si="0"/>
         <v>432.05999755859381</v>
       </c>
-      <c r="N15" s="17">
+      <c r="N28" s="17">
         <v>6.52</v>
       </c>
-      <c r="O15" s="17">
+      <c r="O28" s="17">
         <f t="shared" si="1"/>
         <v>25.859997558593818</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P28" s="12">
         <f t="shared" si="2"/>
         <v>6.3663214078271343E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>44020</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C29" t="s">
         <v>109</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E29" t="s">
         <v>18</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G29" t="s">
         <v>116</v>
       </c>
-      <c r="H16">
+      <c r="H29">
         <v>3</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I29" s="17">
         <v>203.1</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J29" s="17">
         <v>609.29999999999995</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K29" t="s">
         <v>112</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L29" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M29" s="17">
         <f t="shared" si="0"/>
         <v>648.08999633789074</v>
       </c>
-      <c r="N16" s="17">
+      <c r="N29" s="17">
         <v>9.7799999999999994</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O29" s="17">
         <f t="shared" si="1"/>
         <v>38.789996337890784</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P29" s="12">
         <f t="shared" si="2"/>
         <v>6.3663214078271441E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>44020</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B30" t="s">
         <v>108</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C30" t="s">
         <v>109</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D30" t="s">
         <v>110</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E30" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F30" t="s">
         <v>124</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G30" t="s">
         <v>116</v>
       </c>
-      <c r="H17">
+      <c r="H30">
         <v>10</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I30" s="17">
         <v>100.69</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J30" s="17">
         <v>1006.9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K30" t="s">
         <v>112</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L30" s="17">
         <v>96.480003356933594</v>
       </c>
-      <c r="M17" s="17">
+      <c r="M30" s="17">
         <f t="shared" si="0"/>
         <v>964.80003356933594</v>
       </c>
-      <c r="N17" s="17">
+      <c r="N30" s="17">
         <v>51.29999999999999</v>
       </c>
-      <c r="O17" s="17">
+      <c r="O30" s="17">
         <f t="shared" si="1"/>
         <v>-42.09996643066404</v>
       </c>
-      <c r="P17" s="12">
+      <c r="P30" s="12">
         <f t="shared" si="2"/>
         <v>-4.1811467306250912E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>44020</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B31" t="s">
         <v>108</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C31" t="s">
         <v>109</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D31" t="s">
         <v>110</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E31" t="s">
         <v>86</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F31" t="s">
         <v>125</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G31" t="s">
         <v>43</v>
       </c>
-      <c r="H18">
+      <c r="H31">
         <v>100</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I31" s="17">
         <v>24.08</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J31" s="17">
         <v>2408</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K31" t="s">
         <v>112</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L31" s="17">
         <v>42.599998474121087</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M31" s="17">
         <f t="shared" si="0"/>
         <v>4259.9998474121085</v>
       </c>
-      <c r="N18" s="17">
+      <c r="N31" s="17">
         <v>56.219191199999997</v>
       </c>
-      <c r="O18" s="17">
+      <c r="O31" s="17">
         <f t="shared" si="1"/>
         <v>1851.9998474121085</v>
       </c>
-      <c r="P18" s="12">
+      <c r="P31" s="12">
         <f t="shared" si="2"/>
         <v>0.76910292666615798</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>44018</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E32" t="s">
         <v>36</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F32" t="s">
         <v>120</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G32" t="s">
         <v>116</v>
       </c>
-      <c r="H19">
+      <c r="H32">
         <v>10</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I32" s="17">
         <v>103.75</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J32" s="17">
         <v>1037.5</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K32" t="s">
         <v>112</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L32" s="17">
         <v>113.5</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M32" s="17">
         <f t="shared" si="0"/>
         <v>1135</v>
       </c>
-      <c r="N19" s="17">
+      <c r="N32" s="17">
         <v>24.333568270000001</v>
       </c>
-      <c r="O19" s="17">
+      <c r="O32" s="17">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
-      <c r="P19" s="12">
+      <c r="P32" s="12">
         <f t="shared" si="2"/>
         <v>9.3975903614457831E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>43924</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B33" t="s">
         <v>108</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C33" t="s">
         <v>109</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D33" t="s">
         <v>110</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E33" t="s">
         <v>9</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F33" t="s">
         <v>126</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G33" t="s">
         <v>116</v>
       </c>
-      <c r="H20">
+      <c r="H33">
         <v>50</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I33" s="17">
         <v>77</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J33" s="17">
         <v>3850</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K33" t="s">
         <v>112</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L33" s="17">
         <v>92.319999694824219</v>
       </c>
-      <c r="M20" s="17">
+      <c r="M33" s="17">
         <f t="shared" si="0"/>
         <v>4615.9999847412109</v>
       </c>
-      <c r="N20" s="17">
+      <c r="N33" s="17">
         <v>253.50000000000011</v>
       </c>
-      <c r="O20" s="17">
+      <c r="O33" s="17">
         <f t="shared" si="1"/>
         <v>765.99998474121094</v>
       </c>
-      <c r="P20" s="12">
+      <c r="P33" s="12">
         <f t="shared" si="2"/>
         <v>0.19896103499771714</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>43840</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B34" t="s">
         <v>108</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C34" t="s">
         <v>109</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D34" t="s">
         <v>110</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E34" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F34" t="s">
         <v>122</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G34" t="s">
         <v>116</v>
       </c>
-      <c r="H21">
+      <c r="H34">
         <v>50</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I34" s="17">
         <v>94.4</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J34" s="17">
         <v>4720</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K34" t="s">
         <v>112</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L34" s="17">
         <v>65.010002136230469</v>
       </c>
-      <c r="M21" s="17">
+      <c r="M34" s="17">
         <f t="shared" si="0"/>
         <v>3250.5001068115234</v>
       </c>
-      <c r="N21" s="17">
+      <c r="N34" s="17">
         <v>118.5</v>
       </c>
-      <c r="O21" s="17">
+      <c r="O34" s="17">
         <f t="shared" si="1"/>
         <v>-1469.4998931884766</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P34" s="12">
         <f t="shared" si="2"/>
         <v>-0.3113347231331518</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
         <v>43837</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B35" t="s">
         <v>108</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C35" t="s">
         <v>109</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D35" t="s">
         <v>110</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E35" t="s">
         <v>31</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F35" t="s">
         <v>127</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G35" t="s">
         <v>116</v>
       </c>
-      <c r="H22">
+      <c r="H35">
         <v>40</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I35" s="17">
         <v>120</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J35" s="17">
         <v>4800</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K35" t="s">
         <v>112</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L35" s="17">
         <v>108.5899963378906</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M35" s="17">
         <f t="shared" si="0"/>
         <v>4343.5998535156241</v>
       </c>
-      <c r="N22" s="17">
+      <c r="N35" s="17">
         <v>357.59151999999989</v>
       </c>
-      <c r="O22" s="17">
+      <c r="O35" s="17">
         <f t="shared" si="1"/>
         <v>-456.40014648437591</v>
       </c>
-      <c r="P22" s="12">
+      <c r="P35" s="12">
         <f t="shared" si="2"/>
         <v>-9.5083363850911651E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>43819</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D36" t="s">
         <v>110</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E36" t="s">
         <v>31</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F36" t="s">
         <v>128</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G36" t="s">
         <v>116</v>
       </c>
-      <c r="H23">
+      <c r="H36">
         <v>10</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I36" s="17">
         <v>108.5</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J36" s="17">
         <v>1085</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K36" t="s">
         <v>112</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L36" s="17">
         <v>108.5899963378906</v>
       </c>
-      <c r="M23" s="17">
+      <c r="M36" s="17">
         <f t="shared" si="0"/>
         <v>1085.899963378906</v>
       </c>
-      <c r="N23" s="17">
+      <c r="N36" s="17">
         <v>96.274639999999977</v>
       </c>
-      <c r="O23" s="17">
+      <c r="O36" s="17">
         <f t="shared" si="1"/>
         <v>0.89996337890602263</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P36" s="12">
         <f t="shared" si="2"/>
         <v>8.2945933539725592E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
         <v>43816</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B37" t="s">
         <v>108</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C37" t="s">
         <v>109</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D37" t="s">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F37" t="s">
         <v>129</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G37" t="s">
         <v>116</v>
       </c>
-      <c r="H24">
+      <c r="H37">
         <v>50</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I37" s="17">
         <v>135</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J37" s="17">
         <v>6750</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K37" t="s">
         <v>112</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L37" s="17">
         <v>130</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M37" s="17">
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N37" s="17">
         <v>480.99999999999989</v>
       </c>
-      <c r="O24" s="17">
+      <c r="O37" s="17">
         <f t="shared" si="1"/>
         <v>-250</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P37" s="12">
         <f t="shared" si="2"/>
         <v>-3.7037037037037035E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
         <v>43810</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D38" t="s">
         <v>110</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F38" t="s">
         <v>124</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G38" t="s">
         <v>116</v>
       </c>
-      <c r="H25">
+      <c r="H38">
         <v>100</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I38" s="17">
         <v>103.34</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J38" s="17">
         <v>10334</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K38" t="s">
         <v>112</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L38" s="17">
         <v>96.480003356933594</v>
       </c>
-      <c r="M25" s="17">
+      <c r="M38" s="17">
         <f t="shared" si="0"/>
         <v>9648.0003356933594</v>
       </c>
-      <c r="N25" s="17">
+      <c r="N38" s="17">
         <v>1083.49</v>
       </c>
-      <c r="O25" s="17">
+      <c r="O38" s="17">
         <f t="shared" si="1"/>
         <v>-685.99966430664063</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P38" s="12">
         <f t="shared" si="2"/>
         <v>-6.6382781527640863E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
         <v>43808</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B39" t="s">
         <v>108</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C39" t="s">
         <v>109</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D39" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E39" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F39" t="s">
         <v>130</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G39" t="s">
         <v>116</v>
       </c>
-      <c r="H26">
+      <c r="H39">
         <v>32</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I39" s="17">
         <v>97.89</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J39" s="17">
         <v>3132.48</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K39" t="s">
         <v>112</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L39" s="17">
         <v>92.319999694824219</v>
       </c>
-      <c r="M26" s="17">
+      <c r="M39" s="17">
         <f t="shared" si="0"/>
         <v>2954.239990234375</v>
       </c>
-      <c r="N26" s="17">
+      <c r="N39" s="17">
         <v>215.68000000000009</v>
       </c>
-      <c r="O26" s="17">
+      <c r="O39" s="17">
         <f t="shared" si="1"/>
         <v>-178.24000976562502</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P39" s="12">
         <f t="shared" si="2"/>
         <v>-5.6900605834873649E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>43808</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B40" t="s">
         <v>108</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C40" t="s">
         <v>109</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D40" t="s">
         <v>110</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E40" t="s">
         <v>9</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F40" t="s">
         <v>130</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G40" t="s">
         <v>116</v>
       </c>
-      <c r="H27">
+      <c r="H40">
         <v>100</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I40" s="17">
         <v>98.51</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J40" s="17">
         <v>9851</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K40" t="s">
         <v>112</v>
       </c>
-      <c r="L27" s="17">
+      <c r="L40" s="17">
         <v>92.319999694824219</v>
       </c>
-      <c r="M27" s="17">
+      <c r="M40" s="17">
         <f t="shared" si="0"/>
         <v>9231.9999694824219</v>
       </c>
-      <c r="N27" s="17">
+      <c r="N40" s="17">
         <v>674.00000000000023</v>
       </c>
-      <c r="O27" s="17">
+      <c r="O40" s="17">
         <f t="shared" si="1"/>
         <v>-619.00003051757813</v>
       </c>
-      <c r="P27" s="12">
+      <c r="P40" s="12">
         <f t="shared" si="2"/>
         <v>-6.283626337606113E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
         <v>43804</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B41" t="s">
         <v>108</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C41" t="s">
         <v>109</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D41" t="s">
         <v>110</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F41" t="s">
         <v>131</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G41" t="s">
         <v>116</v>
       </c>
-      <c r="H28">
+      <c r="H41">
         <v>100</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I41" s="17">
         <v>112.5</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J41" s="17">
         <v>11250</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K41" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="17">
+      <c r="L41" s="17">
         <v>103.0899963378906</v>
       </c>
-      <c r="M28" s="17">
+      <c r="M41" s="17">
         <f t="shared" si="0"/>
         <v>10308.999633789059</v>
       </c>
-      <c r="N28" s="17">
+      <c r="N41" s="17">
         <v>1011</v>
       </c>
-      <c r="O28" s="17">
+      <c r="O41" s="17">
         <f t="shared" si="1"/>
         <v>-941.00036621094114</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P41" s="12">
         <f t="shared" si="2"/>
         <v>-8.3644476996528105E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
         <v>43795</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B42" t="s">
         <v>108</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C42" t="s">
         <v>109</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D42" t="s">
         <v>110</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E42" t="s">
         <v>59</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F42" t="s">
         <v>132</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G42" t="s">
         <v>43</v>
       </c>
-      <c r="H29">
+      <c r="H42">
         <v>200</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I42" s="17">
         <v>20.329999999999998</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J42" s="17">
         <v>4066</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K42" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="17">
+      <c r="L42" s="17">
         <v>13.22999954223633</v>
       </c>
-      <c r="M29" s="17">
+      <c r="M42" s="17">
         <f t="shared" si="0"/>
         <v>2645.9999084472661</v>
       </c>
-      <c r="N29" s="17">
+      <c r="N42" s="17">
         <v>117.07488379999999</v>
       </c>
-      <c r="O29" s="17">
+      <c r="O42" s="17">
         <f t="shared" si="1"/>
         <v>-1420.0000915527339</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P42" s="12">
         <f t="shared" si="2"/>
         <v>-0.34923760244779484</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>43795</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B43" t="s">
         <v>108</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C43" t="s">
         <v>109</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D43" t="s">
         <v>110</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F43" t="s">
         <v>133</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G43" t="s">
         <v>116</v>
       </c>
-      <c r="H30">
+      <c r="H43">
         <v>100</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I43" s="17">
         <v>105.15</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J43" s="17">
         <v>10515</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K43" t="s">
         <v>112</v>
       </c>
-      <c r="L30" s="17">
+      <c r="L43" s="17">
         <v>96.230003356933594</v>
       </c>
-      <c r="M30" s="17">
+      <c r="M43" s="17">
         <f t="shared" si="0"/>
         <v>9623.0003356933594</v>
       </c>
-      <c r="N30" s="17">
+      <c r="N43" s="17">
         <v>604.00000000000011</v>
       </c>
-      <c r="O30" s="17">
+      <c r="O43" s="17">
         <f t="shared" si="1"/>
         <v>-891.99966430664063</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P43" s="12">
         <f t="shared" si="2"/>
         <v>-8.4831161607859307E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
         <v>43794</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B44" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C44" t="s">
         <v>109</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D44" t="s">
         <v>110</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F44" t="s">
         <v>134</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G44" t="s">
         <v>116</v>
       </c>
-      <c r="H31">
+      <c r="H44">
         <v>50</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I44" s="17">
         <v>113.24</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J44" s="17">
         <v>5662</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K44" t="s">
         <v>112</v>
       </c>
-      <c r="L31" s="17">
+      <c r="L44" s="17">
         <v>97.120002746582031</v>
       </c>
-      <c r="M31" s="17">
+      <c r="M44" s="17">
         <f t="shared" si="0"/>
         <v>4856.0001373291016</v>
       </c>
-      <c r="N31" s="17">
+      <c r="N44" s="17">
         <v>337.50000000000011</v>
       </c>
-      <c r="O31" s="17">
+      <c r="O44" s="17">
         <f t="shared" si="1"/>
         <v>-805.99986267089844</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P44" s="12">
         <f t="shared" si="2"/>
         <v>-0.14235250135480368</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
         <v>43794</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B45" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C45" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D45" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F45" t="s">
         <v>134</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G45" t="s">
         <v>116</v>
       </c>
-      <c r="H32">
+      <c r="H45">
         <v>50</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I45" s="17">
         <v>113.4</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J45" s="17">
         <v>5670</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K45" t="s">
         <v>112</v>
       </c>
-      <c r="L32" s="17">
+      <c r="L45" s="17">
         <v>97.120002746582031</v>
       </c>
-      <c r="M32" s="17">
+      <c r="M45" s="17">
         <f t="shared" si="0"/>
         <v>4856.0001373291016</v>
       </c>
-      <c r="N32" s="17">
+      <c r="N45" s="17">
         <v>337.50000000000011</v>
       </c>
-      <c r="O32" s="17">
+      <c r="O45" s="17">
         <f t="shared" si="1"/>
         <v>-813.99986267089844</v>
       </c>
-      <c r="P32" s="12">
+      <c r="P45" s="12">
         <f t="shared" si="2"/>
         <v>-0.14356258600897678</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
         <v>43794</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D46" t="s">
         <v>110</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E46" t="s">
         <v>0</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F46" t="s">
         <v>135</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G46" t="s">
         <v>116</v>
       </c>
-      <c r="H33">
+      <c r="H46">
         <v>100</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I46" s="17">
         <v>126.5</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J46" s="17">
         <v>12650</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K46" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L46" s="17">
         <v>115</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M46" s="17">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="N33" s="17">
+      <c r="N46" s="17">
         <v>952.00000000000011</v>
       </c>
-      <c r="O33" s="17">
+      <c r="O46" s="17">
         <f t="shared" si="1"/>
         <v>-1150</v>
       </c>
-      <c r="P33" s="12">
+      <c r="P46" s="12">
         <f t="shared" si="2"/>
         <v>-9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
         <v>43790</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B47" t="s">
         <v>108</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C47" t="s">
         <v>109</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D47" t="s">
         <v>110</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E47" t="s">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F47" t="s">
         <v>135</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G47" t="s">
         <v>116</v>
       </c>
-      <c r="H34">
+      <c r="H47">
         <v>100</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I47" s="17">
         <v>129.19999999999999</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J47" s="17">
         <v>12920</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K47" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="17">
+      <c r="L47" s="17">
         <v>115</v>
       </c>
-      <c r="M34" s="17">
+      <c r="M47" s="17">
         <f t="shared" si="0"/>
         <v>11500</v>
       </c>
-      <c r="N34" s="17">
+      <c r="N47" s="17">
         <v>952.00000000000011</v>
       </c>
-      <c r="O34" s="17">
+      <c r="O47" s="17">
         <f t="shared" si="1"/>
         <v>-1420</v>
       </c>
-      <c r="P34" s="12">
+      <c r="P47" s="12">
         <f t="shared" si="2"/>
         <v>-0.10990712074303406</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>43790</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B48" t="s">
         <v>108</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C48" t="s">
         <v>109</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D48" t="s">
         <v>110</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E48" t="s">
         <v>0</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F48" t="s">
         <v>135</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G48" t="s">
         <v>116</v>
       </c>
-      <c r="H35">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I48" s="17">
         <v>130</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J48" s="17">
         <v>13000</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K48" t="s">
         <v>112</v>
       </c>
-      <c r="L35" s="17">
+      <c r="L48" s="17">
         <v>115</v>
       </c>
-      <c r="M35" s="17">
-        <f t="shared" ref="M35:M66" si="3">H35*L35</f>
+      <c r="M48" s="17">
+        <f t="shared" ref="M48:M79" si="3">H48*L48</f>
         <v>11500</v>
       </c>
-      <c r="N35" s="17">
+      <c r="N48" s="17">
         <v>952.00000000000011</v>
       </c>
-      <c r="O35" s="17">
-        <f t="shared" ref="O35:O66" si="4">M35-J35</f>
+      <c r="O48" s="17">
+        <f t="shared" ref="O48:O79" si="4">M48-J48</f>
         <v>-1500</v>
       </c>
-      <c r="P35" s="12">
-        <f t="shared" ref="P35:P66" si="5">O35/J35</f>
+      <c r="P48" s="12">
+        <f t="shared" ref="P48:P79" si="5">O48/J48</f>
         <v>-0.11538461538461539</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
         <v>43788</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B49" t="s">
         <v>108</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C49" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D49" t="s">
         <v>110</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F49" t="s">
         <v>136</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G49" t="s">
         <v>116</v>
       </c>
-      <c r="H36">
+      <c r="H49">
         <v>50</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I49" s="17">
         <v>106.68</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J49" s="17">
         <v>5334</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K49" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L49" s="17">
         <v>103.0899963378906</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M49" s="17">
         <f t="shared" si="3"/>
         <v>5154.4998168945294</v>
       </c>
-      <c r="N36" s="17">
+      <c r="N49" s="17">
         <v>548</v>
       </c>
-      <c r="O36" s="17">
+      <c r="O49" s="17">
         <f t="shared" si="4"/>
         <v>-179.50018310547057</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P49" s="12">
         <f t="shared" si="5"/>
         <v>-3.3652077822547914E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
         <v>43788</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B50" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C50" t="s">
         <v>109</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D50" t="s">
         <v>110</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E50" t="s">
         <v>38</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F50" t="s">
         <v>137</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G50" t="s">
         <v>116</v>
       </c>
-      <c r="H37">
+      <c r="H50">
         <v>25</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I50" s="17">
         <v>108</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J50" s="17">
         <v>2700</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K50" t="s">
         <v>112</v>
       </c>
-      <c r="L37" s="17">
+      <c r="L50" s="17">
         <v>96.879997253417969</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M50" s="17">
         <f t="shared" si="3"/>
         <v>2421.9999313354492</v>
       </c>
-      <c r="N37" s="17">
+      <c r="N50" s="17">
         <v>237.44156624999999</v>
       </c>
-      <c r="O37" s="17">
+      <c r="O50" s="17">
         <f t="shared" si="4"/>
         <v>-278.00006866455078</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P50" s="12">
         <f t="shared" si="5"/>
         <v>-0.10296298839427807</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
         <v>43788</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B51" t="s">
         <v>108</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C51" t="s">
         <v>109</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D51" t="s">
         <v>110</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E51" t="s">
         <v>84</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F51" t="s">
         <v>118</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G51" t="s">
         <v>43</v>
       </c>
-      <c r="H38">
+      <c r="H51">
         <v>200</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I51" s="17">
         <v>19.809999999999999</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J51" s="17">
         <v>3962</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K51" t="s">
         <v>112</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L51" s="17">
         <v>21.020000457763668</v>
       </c>
-      <c r="M38" s="17">
+      <c r="M51" s="17">
         <f t="shared" si="3"/>
         <v>4204.0000915527335</v>
       </c>
-      <c r="N38" s="17">
+      <c r="N51" s="17">
         <v>294.30188846980002</v>
       </c>
-      <c r="O38" s="17">
+      <c r="O51" s="17">
         <f t="shared" si="4"/>
         <v>242.00009155273347</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P51" s="12">
         <f t="shared" si="5"/>
         <v>6.1080285601396632E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
         <v>43787</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B52" t="s">
         <v>108</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C52" t="s">
         <v>109</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D52" t="s">
         <v>110</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E52" t="s">
         <v>3</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F52" t="s">
         <v>138</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G52" t="s">
         <v>116</v>
       </c>
-      <c r="H39">
+      <c r="H52">
         <v>100</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I52" s="17">
         <v>117</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J52" s="17">
         <v>11700</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K52" t="s">
         <v>112</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L52" s="17">
         <v>122.1999969482422</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M52" s="17">
         <f t="shared" si="3"/>
         <v>12219.999694824221</v>
       </c>
-      <c r="N39" s="17">
+      <c r="N52" s="17">
         <v>887.00000000000011</v>
       </c>
-      <c r="O39" s="17">
+      <c r="O52" s="17">
         <f t="shared" si="4"/>
         <v>519.99969482422057</v>
       </c>
-      <c r="P39" s="12">
+      <c r="P52" s="12">
         <f t="shared" si="5"/>
         <v>4.4444418361044492E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
         <v>43787</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B53" t="s">
         <v>108</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C53" t="s">
         <v>109</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D53" t="s">
         <v>110</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E53" t="s">
         <v>3</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F53" t="s">
         <v>138</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G53" t="s">
         <v>116</v>
       </c>
-      <c r="H40">
+      <c r="H53">
         <v>100</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I53" s="17">
         <v>118</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J53" s="17">
         <v>11800</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K53" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="17">
+      <c r="L53" s="17">
         <v>122.1999969482422</v>
       </c>
-      <c r="M40" s="17">
+      <c r="M53" s="17">
         <f t="shared" si="3"/>
         <v>12219.999694824221</v>
       </c>
-      <c r="N40" s="17">
+      <c r="N53" s="17">
         <v>887.00000000000011</v>
       </c>
-      <c r="O40" s="17">
+      <c r="O53" s="17">
         <f t="shared" si="4"/>
         <v>419.99969482422057</v>
       </c>
-      <c r="P40" s="12">
+      <c r="P53" s="12">
         <f t="shared" si="5"/>
         <v>3.5593194476628863E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
         <v>43783</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B54" t="s">
         <v>108</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C54" t="s">
         <v>109</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D54" t="s">
         <v>110</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E54" t="s">
         <v>16</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F54" t="s">
         <v>139</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G54" t="s">
         <v>116</v>
       </c>
-      <c r="H41">
+      <c r="H54">
         <v>100</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I54" s="17">
         <v>94.28</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J54" s="17">
         <v>9428</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K54" t="s">
         <v>112</v>
       </c>
-      <c r="L41" s="17">
+      <c r="L54" s="17">
         <v>88</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M54" s="17">
         <f t="shared" si="3"/>
         <v>8800</v>
       </c>
-      <c r="N41" s="17">
+      <c r="N54" s="17">
         <v>738.66160090000005</v>
       </c>
-      <c r="O41" s="17">
+      <c r="O54" s="17">
         <f t="shared" si="4"/>
         <v>-628</v>
       </c>
-      <c r="P41" s="12">
+      <c r="P54" s="12">
         <f t="shared" si="5"/>
         <v>-6.6610097581671621E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
         <v>43783</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B55" t="s">
         <v>108</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C55" t="s">
         <v>109</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D55" t="s">
         <v>110</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E55" t="s">
         <v>80</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F55" t="s">
         <v>140</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G55" t="s">
         <v>43</v>
       </c>
-      <c r="H42">
+      <c r="H55">
         <v>100</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I55" s="17">
         <v>16.8</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J55" s="17">
         <v>1680</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K55" t="s">
         <v>112</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L55" s="17">
         <v>19.29999923706055</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M55" s="17">
         <f t="shared" si="3"/>
         <v>1929.9999237060551</v>
       </c>
-      <c r="N42" s="17">
+      <c r="N55" s="17">
         <v>128.75104820000001</v>
       </c>
-      <c r="O42" s="17">
+      <c r="O55" s="17">
         <f t="shared" si="4"/>
         <v>249.99992370605514</v>
       </c>
-      <c r="P42" s="12">
+      <c r="P55" s="12">
         <f t="shared" si="5"/>
         <v>0.14880947839646139</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
         <v>43783</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B56" t="s">
         <v>108</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D56" t="s">
         <v>110</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E56" t="s">
         <v>36</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F56" t="s">
         <v>120</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G56" t="s">
         <v>116</v>
       </c>
-      <c r="H43">
+      <c r="H56">
         <v>10</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I56" s="17">
         <v>128.51</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J56" s="17">
         <v>1285.0999999999999</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K56" t="s">
         <v>112</v>
       </c>
-      <c r="L43" s="17">
+      <c r="L56" s="17">
         <v>113.5</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M56" s="17">
         <f t="shared" si="3"/>
         <v>1135</v>
       </c>
-      <c r="N43" s="17">
+      <c r="N56" s="17">
         <v>49.233568269999992</v>
       </c>
-      <c r="O43" s="17">
+      <c r="O56" s="17">
         <f t="shared" si="4"/>
         <v>-150.09999999999991</v>
       </c>
-      <c r="P43" s="12">
+      <c r="P56" s="12">
         <f t="shared" si="5"/>
         <v>-0.11680024900785925</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
         <v>43781</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B57" t="s">
         <v>108</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D57" t="s">
         <v>110</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E57" t="s">
         <v>34</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F57" t="s">
         <v>141</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G57" t="s">
         <v>116</v>
       </c>
-      <c r="H44">
+      <c r="H57">
         <v>10</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I57" s="17">
         <v>168.86</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J57" s="17">
         <v>1688.6</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K57" t="s">
         <v>112</v>
       </c>
-      <c r="L44" s="17">
+      <c r="L57" s="17">
         <v>159.88999938964841</v>
       </c>
-      <c r="M44" s="17">
+      <c r="M57" s="17">
         <f t="shared" si="3"/>
         <v>1598.8999938964841</v>
       </c>
-      <c r="N44" s="17">
+      <c r="N57" s="17">
         <v>101.5</v>
       </c>
-      <c r="O44" s="17">
+      <c r="O57" s="17">
         <f t="shared" si="4"/>
         <v>-89.700006103515761</v>
       </c>
-      <c r="P44" s="12">
+      <c r="P57" s="12">
         <f t="shared" si="5"/>
         <v>-5.3120932194430752E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
         <v>43780</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B58" t="s">
         <v>108</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D58" t="s">
         <v>110</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E58" t="s">
         <v>55</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F58" t="s">
         <v>142</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G58" t="s">
         <v>43</v>
       </c>
-      <c r="H45">
+      <c r="H58">
         <v>100</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I58" s="17">
         <v>34.36</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J58" s="17">
         <v>3436</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K58" t="s">
         <v>112</v>
       </c>
-      <c r="L45" s="17">
+      <c r="L58" s="17">
         <v>28.010000228881839</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M58" s="17">
         <f t="shared" si="3"/>
         <v>2801.000022888184</v>
       </c>
-      <c r="N45" s="17">
+      <c r="N58" s="17">
         <v>278.60965470000002</v>
       </c>
-      <c r="O45" s="17">
+      <c r="O58" s="17">
         <f t="shared" si="4"/>
         <v>-634.99997711181595</v>
       </c>
-      <c r="P45" s="12">
+      <c r="P58" s="12">
         <f t="shared" si="5"/>
         <v>-0.18480790952031897</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
         <v>43766</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B59" t="s">
         <v>108</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D59" t="s">
         <v>110</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E59" t="s">
         <v>3</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F59" t="s">
         <v>138</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G59" t="s">
         <v>116</v>
       </c>
-      <c r="H46">
+      <c r="H59">
         <v>20</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I59" s="17">
         <v>107.89</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J59" s="17">
         <v>2157.8000000000002</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K59" t="s">
         <v>112</v>
       </c>
-      <c r="L46" s="17">
+      <c r="L59" s="17">
         <v>122.1999969482422</v>
       </c>
-      <c r="M46" s="17">
+      <c r="M59" s="17">
         <f t="shared" si="3"/>
         <v>2443.9999389648442</v>
       </c>
-      <c r="N46" s="17">
+      <c r="N59" s="17">
         <v>190.2</v>
       </c>
-      <c r="O46" s="17">
+      <c r="O59" s="17">
         <f t="shared" si="4"/>
         <v>286.19993896484402</v>
       </c>
-      <c r="P46" s="12">
+      <c r="P59" s="12">
         <f t="shared" si="5"/>
         <v>0.13263506301086478</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
         <v>43763</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B60" t="s">
         <v>108</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D60" t="s">
         <v>110</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E60" t="s">
         <v>83</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F60" t="s">
         <v>143</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G60" t="s">
         <v>43</v>
       </c>
-      <c r="H47">
+      <c r="H60">
         <v>100</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I60" s="17">
         <v>41.55</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J60" s="17">
         <v>4155</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K60" t="s">
         <v>112</v>
       </c>
-      <c r="L47" s="17">
+      <c r="L60" s="17">
         <v>66.900001525878906</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M60" s="17">
         <f t="shared" si="3"/>
         <v>6690.0001525878906</v>
       </c>
-      <c r="N47" s="17">
+      <c r="N60" s="17">
         <v>38.013521924999992</v>
       </c>
-      <c r="O47" s="17">
+      <c r="O60" s="17">
         <f t="shared" si="4"/>
         <v>2535.0001525878906</v>
       </c>
-      <c r="P47" s="12">
+      <c r="P60" s="12">
         <f t="shared" si="5"/>
         <v>0.61010833997301817</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
         <v>43740</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B61" t="s">
         <v>108</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D61" t="s">
         <v>110</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E61" t="s">
         <v>57</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F61" t="s">
         <v>144</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G61" t="s">
         <v>43</v>
       </c>
-      <c r="H48">
+      <c r="H61">
         <v>100</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I61" s="17">
         <v>31.45</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J61" s="17">
         <v>3145</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K61" t="s">
         <v>112</v>
       </c>
-      <c r="L48" s="17">
+      <c r="L61" s="17">
         <v>30.219999313354489</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M61" s="17">
         <f t="shared" si="3"/>
         <v>3021.9999313354488</v>
       </c>
-      <c r="N48" s="17">
+      <c r="N61" s="17">
         <v>83.862002783400001</v>
       </c>
-      <c r="O48" s="17">
+      <c r="O61" s="17">
         <f t="shared" si="4"/>
         <v>-123.00006866455124</v>
       </c>
-      <c r="P48" s="12">
+      <c r="P61" s="12">
         <f t="shared" si="5"/>
         <v>-3.9109719766153017E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
         <v>43735</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B62" t="s">
         <v>108</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D62" t="s">
         <v>110</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E62" t="s">
         <v>81</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F62" t="s">
         <v>145</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G62" t="s">
         <v>43</v>
       </c>
-      <c r="H49">
+      <c r="H62">
         <v>100</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I62" s="17">
         <v>35</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J62" s="17">
         <v>3500</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K62" t="s">
         <v>112</v>
       </c>
-      <c r="L49" s="17">
+      <c r="L62" s="17">
         <v>53.299999237060547</v>
       </c>
-      <c r="M49" s="17">
+      <c r="M62" s="17">
         <f t="shared" si="3"/>
         <v>5329.9999237060547</v>
       </c>
-      <c r="N49" s="17">
+      <c r="N62" s="17">
         <v>10.866848250049999</v>
       </c>
-      <c r="O49" s="17">
+      <c r="O62" s="17">
         <f t="shared" si="4"/>
         <v>1829.9999237060547</v>
       </c>
-      <c r="P49" s="12">
+      <c r="P62" s="12">
         <f t="shared" si="5"/>
         <v>0.52285712105887272</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
         <v>43731</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B63" t="s">
         <v>108</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D63" t="s">
         <v>110</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E63" t="s">
         <v>23</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F63" t="s">
         <v>119</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G63" t="s">
         <v>43</v>
       </c>
-      <c r="H50">
+      <c r="H63">
         <v>30</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I63" s="17">
         <v>120.2</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J63" s="17">
         <v>3606</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K63" t="s">
         <v>112</v>
       </c>
-      <c r="L50" s="17">
+      <c r="L63" s="17">
         <v>116.5</v>
       </c>
-      <c r="M50" s="17">
+      <c r="M63" s="17">
         <f t="shared" si="3"/>
         <v>3495</v>
       </c>
-      <c r="N50" s="17">
+      <c r="N63" s="17">
         <v>231.15</v>
       </c>
-      <c r="O50" s="17">
+      <c r="O63" s="17">
         <f t="shared" si="4"/>
         <v>-111</v>
       </c>
-      <c r="P50" s="12">
+      <c r="P63" s="12">
         <f t="shared" si="5"/>
         <v>-3.0782029950083195E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
         <v>43728</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B64" t="s">
         <v>108</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D64" t="s">
         <v>110</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E64" t="s">
         <v>3</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F64" t="s">
         <v>138</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G64" t="s">
         <v>116</v>
       </c>
-      <c r="H51">
+      <c r="H64">
         <v>30</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I64" s="17">
         <v>102</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J64" s="17">
         <v>3060</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K64" t="s">
         <v>112</v>
       </c>
-      <c r="L51" s="17">
+      <c r="L64" s="17">
         <v>122.1999969482422</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M64" s="17">
         <f t="shared" si="3"/>
         <v>3665.9999084472661</v>
       </c>
-      <c r="N51" s="17">
+      <c r="N64" s="17">
         <v>303.60000000000002</v>
       </c>
-      <c r="O51" s="17">
+      <c r="O64" s="17">
         <f t="shared" si="4"/>
         <v>605.99990844726608</v>
       </c>
-      <c r="P51" s="12">
+      <c r="P64" s="12">
         <f t="shared" si="5"/>
         <v>0.19803918576708041</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
         <v>43726</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B65" t="s">
         <v>108</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C65" t="s">
         <v>109</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D65" t="s">
         <v>110</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E65" t="s">
         <v>77</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F65" t="s">
         <v>146</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G65" t="s">
         <v>43</v>
       </c>
-      <c r="H52">
+      <c r="H65">
         <v>100</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I65" s="17">
         <v>29.2</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J65" s="17">
         <v>2920</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K65" t="s">
         <v>112</v>
       </c>
-      <c r="L52" s="17">
+      <c r="L65" s="17">
         <v>26.829999923706051</v>
       </c>
-      <c r="M52" s="17">
+      <c r="M65" s="17">
         <f t="shared" si="3"/>
         <v>2682.999992370605</v>
       </c>
-      <c r="N52" s="17">
+      <c r="N65" s="17">
         <v>54.059514</v>
       </c>
-      <c r="O52" s="17">
+      <c r="O65" s="17">
         <f t="shared" si="4"/>
         <v>-237.00000762939499</v>
       </c>
-      <c r="P52" s="12">
+      <c r="P65" s="12">
         <f t="shared" si="5"/>
         <v>-8.1164386174450334E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
         <v>43717</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B66" t="s">
         <v>108</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C66" t="s">
         <v>109</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D66" t="s">
         <v>110</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E66" t="s">
         <v>58</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F66" t="s">
         <v>147</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G66" t="s">
         <v>43</v>
       </c>
-      <c r="H53">
+      <c r="H66">
         <v>100</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I66" s="17">
         <v>13.1</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J66" s="17">
         <v>1310</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K66" t="s">
         <v>112</v>
       </c>
-      <c r="L53" s="17">
+      <c r="L66" s="17">
         <v>9.4700002670288086</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M66" s="17">
         <f t="shared" si="3"/>
         <v>947.00002670288086</v>
       </c>
-      <c r="N53" s="17">
+      <c r="N66" s="17">
         <v>0</v>
       </c>
-      <c r="O53" s="17">
+      <c r="O66" s="17">
         <f t="shared" si="4"/>
         <v>-362.99997329711914</v>
       </c>
-      <c r="P53" s="12">
+      <c r="P66" s="12">
         <f t="shared" si="5"/>
         <v>-0.27709921625734285</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
         <v>43717</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B67" t="s">
         <v>108</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D67" t="s">
         <v>110</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E67" t="s">
         <v>73</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F67" t="s">
         <v>148</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G67" t="s">
         <v>43</v>
       </c>
-      <c r="H54">
+      <c r="H67">
         <v>100</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I67" s="17">
         <v>44</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J67" s="17">
         <v>4400</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K67" t="s">
         <v>112</v>
       </c>
-      <c r="L54" s="17">
+      <c r="L67" s="17">
         <v>35</v>
       </c>
-      <c r="M54" s="17">
+      <c r="M67" s="17">
         <f t="shared" si="3"/>
         <v>3500</v>
       </c>
-      <c r="N54" s="17">
+      <c r="N67" s="17">
         <v>41.812331999999998</v>
       </c>
-      <c r="O54" s="17">
+      <c r="O67" s="17">
         <f t="shared" si="4"/>
         <v>-900</v>
       </c>
-      <c r="P54" s="12">
+      <c r="P67" s="12">
         <f t="shared" si="5"/>
         <v>-0.20454545454545456</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
         <v>43717</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B68" t="s">
         <v>108</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C68" t="s">
         <v>109</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D68" t="s">
         <v>110</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E68" t="s">
         <v>91</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F68" t="s">
         <v>149</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G68" t="s">
         <v>43</v>
       </c>
-      <c r="H55">
+      <c r="H68">
         <v>200</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I68" s="17">
         <v>54</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J68" s="17">
         <v>10800</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K68" t="s">
         <v>112</v>
       </c>
-      <c r="L55" s="17">
+      <c r="L68" s="17">
         <v>48.400001525878913</v>
       </c>
-      <c r="M55" s="17">
+      <c r="M68" s="17">
         <f t="shared" si="3"/>
         <v>9680.0003051757831</v>
       </c>
-      <c r="N55" s="17">
+      <c r="N68" s="17">
         <v>387.98417319319998</v>
       </c>
-      <c r="O55" s="17">
+      <c r="O68" s="17">
         <f t="shared" si="4"/>
         <v>-1119.9996948242169</v>
       </c>
-      <c r="P55" s="12">
+      <c r="P68" s="12">
         <f t="shared" si="5"/>
         <v>-0.10370367544668675</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
         <v>43699</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B69" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C69" t="s">
         <v>109</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D69" t="s">
         <v>110</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E69" t="s">
         <v>78</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F69" t="s">
         <v>150</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G69" t="s">
         <v>43</v>
       </c>
-      <c r="H56">
+      <c r="H69">
         <v>400</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I69" s="17">
         <f>34.4/4</f>
         <v>8.6</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J69" s="17">
         <v>3440</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K69" t="s">
         <v>112</v>
       </c>
-      <c r="L56" s="17">
+      <c r="L69" s="17">
         <v>25.909999847412109</v>
       </c>
-      <c r="M56" s="17">
+      <c r="M69" s="17">
         <f t="shared" si="3"/>
         <v>10363.999938964844</v>
       </c>
-      <c r="N56" s="17">
+      <c r="N69" s="17">
         <v>18.715236647499999</v>
       </c>
-      <c r="O56" s="17">
+      <c r="O69" s="17">
         <f t="shared" si="4"/>
         <v>6923.9999389648438</v>
       </c>
-      <c r="P56" s="12">
+      <c r="P69" s="12">
         <f t="shared" si="5"/>
         <v>2.0127906799316406</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
         <v>43699</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B70" t="s">
         <v>108</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C70" t="s">
         <v>109</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D70" t="s">
         <v>110</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E70" t="s">
         <v>78</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F70" t="s">
         <v>150</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G70" t="s">
         <v>43</v>
       </c>
-      <c r="H57">
+      <c r="H70">
         <v>400</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I70" s="17">
         <f>35.97/4</f>
         <v>8.9924999999999997</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J70" s="17">
         <v>3597</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K70" t="s">
         <v>112</v>
       </c>
-      <c r="L57" s="17">
+      <c r="L70" s="17">
         <v>25.909999847412109</v>
       </c>
-      <c r="M57" s="17">
+      <c r="M70" s="17">
         <f t="shared" si="3"/>
         <v>10363.999938964844</v>
       </c>
-      <c r="N57" s="17">
+      <c r="N70" s="17">
         <v>18.715236647499999</v>
       </c>
-      <c r="O57" s="17">
+      <c r="O70" s="17">
         <f t="shared" si="4"/>
         <v>6766.9999389648438</v>
       </c>
-      <c r="P57" s="12">
+      <c r="P70" s="12">
         <f t="shared" si="5"/>
         <v>1.8812899468904207</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>43698</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B71" t="s">
         <v>108</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C71" t="s">
         <v>109</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D71" t="s">
         <v>110</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E71" t="s">
         <v>29</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F71" t="s">
         <v>151</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G71" t="s">
         <v>116</v>
       </c>
-      <c r="H58">
+      <c r="H71">
         <v>10</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I71" s="17">
         <v>149.6</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J71" s="17">
         <v>1496</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K71" t="s">
         <v>112</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L71" s="17">
         <v>178.30000305175781</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M71" s="17">
         <f t="shared" si="3"/>
         <v>1783.0000305175781</v>
       </c>
-      <c r="N58" s="17">
+      <c r="N71" s="17">
         <v>156.80000000000001</v>
       </c>
-      <c r="O58" s="17">
+      <c r="O71" s="17">
         <f t="shared" si="4"/>
         <v>287.00003051757813</v>
       </c>
-      <c r="P58" s="12">
+      <c r="P71" s="12">
         <f t="shared" si="5"/>
         <v>0.19184494018554688</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
         <v>43697</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B72" t="s">
         <v>108</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C72" t="s">
         <v>109</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D72" t="s">
         <v>110</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F72" t="s">
         <v>117</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G72" t="s">
         <v>116</v>
       </c>
-      <c r="H59">
+      <c r="H72">
         <v>20</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I72" s="17">
         <v>240.2</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J72" s="17">
         <v>4804</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K72" t="s">
         <v>112</v>
       </c>
-      <c r="L59" s="17">
+      <c r="L72" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M59" s="17">
+      <c r="M72" s="17">
         <f t="shared" si="3"/>
         <v>4320.5999755859384</v>
       </c>
-      <c r="N59" s="17">
+      <c r="N72" s="17">
         <v>300.2</v>
       </c>
-      <c r="O59" s="17">
+      <c r="O72" s="17">
         <f t="shared" si="4"/>
         <v>-483.40002441406159</v>
       </c>
-      <c r="P59" s="12">
+      <c r="P72" s="12">
         <f t="shared" si="5"/>
         <v>-0.10062448468236086</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
         <v>43697</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B73" t="s">
         <v>108</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C73" t="s">
         <v>109</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D73" t="s">
         <v>110</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E73" t="s">
         <v>18</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F73" t="s">
         <v>117</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G73" t="s">
         <v>116</v>
       </c>
-      <c r="H60">
+      <c r="H73">
         <v>10</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I73" s="17">
         <v>240.5</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J73" s="17">
         <v>2405</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K73" t="s">
         <v>112</v>
       </c>
-      <c r="L60" s="17">
+      <c r="L73" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M60" s="17">
+      <c r="M73" s="17">
         <f t="shared" si="3"/>
         <v>2160.2999877929692</v>
       </c>
-      <c r="N60" s="17">
+      <c r="N73" s="17">
         <v>150.1</v>
       </c>
-      <c r="O60" s="17">
+      <c r="O73" s="17">
         <f t="shared" si="4"/>
         <v>-244.7000122070308</v>
       </c>
-      <c r="P60" s="12">
+      <c r="P73" s="12">
         <f t="shared" si="5"/>
         <v>-0.10174636682205022</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
         <v>43697</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B74" t="s">
         <v>108</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C74" t="s">
         <v>109</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D74" t="s">
         <v>110</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E74" t="s">
         <v>40</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F74" t="s">
         <v>152</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G74" t="s">
         <v>116</v>
       </c>
-      <c r="H61">
+      <c r="H74">
         <v>10</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I74" s="17">
         <v>156.5</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J74" s="17">
         <v>1565</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K74" t="s">
         <v>112</v>
       </c>
-      <c r="L61" s="17">
+      <c r="L74" s="17">
         <v>150.69000244140619</v>
       </c>
-      <c r="M61" s="17">
+      <c r="M74" s="17">
         <f t="shared" si="3"/>
         <v>1506.900024414062</v>
       </c>
-      <c r="N61" s="17">
+      <c r="N74" s="17">
         <v>127.7</v>
       </c>
-      <c r="O61" s="17">
+      <c r="O74" s="17">
         <f t="shared" si="4"/>
         <v>-58.099975585937955</v>
       </c>
-      <c r="P61" s="12">
+      <c r="P74" s="12">
         <f t="shared" si="5"/>
         <v>-3.7124585038937993E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
         <v>43696</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B75" t="s">
         <v>108</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C75" t="s">
         <v>109</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D75" t="s">
         <v>110</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E75" t="s">
         <v>29</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F75" t="s">
         <v>151</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G75" t="s">
         <v>116</v>
       </c>
-      <c r="H62">
+      <c r="H75">
         <v>10</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I75" s="17">
         <v>149.80000000000001</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J75" s="17">
         <v>1498</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K75" t="s">
         <v>112</v>
       </c>
-      <c r="L62" s="17">
+      <c r="L75" s="17">
         <v>178.30000305175781</v>
       </c>
-      <c r="M62" s="17">
+      <c r="M75" s="17">
         <f t="shared" si="3"/>
         <v>1783.0000305175781</v>
       </c>
-      <c r="N62" s="17">
+      <c r="N75" s="17">
         <v>156.80000000000001</v>
       </c>
-      <c r="O62" s="17">
+      <c r="O75" s="17">
         <f t="shared" si="4"/>
         <v>285.00003051757813</v>
       </c>
-      <c r="P62" s="12">
+      <c r="P75" s="12">
         <f t="shared" si="5"/>
         <v>0.19025369193429781</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
         <v>43692</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B76" t="s">
         <v>108</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C76" t="s">
         <v>109</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D76" t="s">
         <v>110</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E76" t="s">
         <v>89</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F76" t="s">
         <v>153</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G76" t="s">
         <v>43</v>
       </c>
-      <c r="H63">
+      <c r="H76">
         <v>100</v>
       </c>
-      <c r="I63" s="17">
+      <c r="I76" s="17">
         <v>17.71</v>
       </c>
-      <c r="J63" s="17">
+      <c r="J76" s="17">
         <v>1771</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K76" t="s">
         <v>112</v>
       </c>
-      <c r="L63" s="17">
+      <c r="L76" s="17">
         <v>23.39999961853027</v>
       </c>
-      <c r="M63" s="17">
+      <c r="M76" s="17">
         <f t="shared" si="3"/>
         <v>2339.9999618530269</v>
       </c>
-      <c r="N63" s="17">
+      <c r="N76" s="17">
         <v>44</v>
       </c>
-      <c r="O63" s="17">
+      <c r="O76" s="17">
         <f t="shared" si="4"/>
         <v>568.99996185302689</v>
       </c>
-      <c r="P63" s="12">
+      <c r="P76" s="12">
         <f t="shared" si="5"/>
         <v>0.32128738670413715</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
         <v>43675</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B77" t="s">
         <v>108</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C77" t="s">
         <v>109</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D77" t="s">
         <v>110</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E77" t="s">
         <v>68</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F77" t="s">
         <v>123</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G77" t="s">
         <v>43</v>
       </c>
-      <c r="H64">
+      <c r="H77">
         <v>200</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I77" s="17">
         <v>12.85</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J77" s="17">
         <v>2570</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K77" t="s">
         <v>112</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L77" s="17">
         <v>12.85999965667725</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M77" s="17">
         <f t="shared" si="3"/>
         <v>2571.9999313354501</v>
       </c>
-      <c r="N64" s="17">
+      <c r="N77" s="17">
         <v>228.53898040000001</v>
       </c>
-      <c r="O64" s="17">
+      <c r="O77" s="17">
         <f t="shared" si="4"/>
         <v>1.9999313354501282</v>
       </c>
-      <c r="P64" s="12">
+      <c r="P77" s="12">
         <f t="shared" si="5"/>
         <v>7.7818339900783198E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
         <v>43671</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B78" t="s">
         <v>108</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C78" t="s">
         <v>109</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D78" t="s">
         <v>110</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E78" t="s">
         <v>34</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F78" t="s">
         <v>154</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G78" t="s">
         <v>116</v>
       </c>
-      <c r="H65">
+      <c r="H78">
         <v>10</v>
       </c>
-      <c r="I65" s="17">
+      <c r="I78" s="17">
         <v>151</v>
       </c>
-      <c r="J65" s="17">
+      <c r="J78" s="17">
         <v>1510</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K78" t="s">
         <v>112</v>
       </c>
-      <c r="L65" s="17">
+      <c r="L78" s="17">
         <v>159.88999938964841</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M78" s="17">
         <f t="shared" si="3"/>
         <v>1598.8999938964841</v>
       </c>
-      <c r="N65" s="17">
+      <c r="N78" s="17">
         <v>131.1</v>
       </c>
-      <c r="O65" s="17">
+      <c r="O78" s="17">
         <f t="shared" si="4"/>
         <v>88.899993896484148</v>
       </c>
-      <c r="P65" s="12">
+      <c r="P78" s="12">
         <f t="shared" si="5"/>
         <v>5.8874168143366983E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
         <v>43670</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B79" t="s">
         <v>108</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C79" t="s">
         <v>109</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D79" t="s">
         <v>110</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E79" t="s">
         <v>16</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F79" t="s">
         <v>155</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G79" t="s">
         <v>116</v>
       </c>
-      <c r="H66">
+      <c r="H79">
         <v>10</v>
       </c>
-      <c r="I66" s="17">
+      <c r="I79" s="17">
         <v>95.5</v>
       </c>
-      <c r="J66" s="17">
+      <c r="J79" s="17">
         <v>955</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K79" t="s">
         <v>112</v>
       </c>
-      <c r="L66" s="17">
+      <c r="L79" s="17">
         <v>88</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M79" s="17">
         <f t="shared" si="3"/>
         <v>880</v>
       </c>
-      <c r="N66" s="17">
+      <c r="N79" s="17">
         <v>92.466160090000017</v>
       </c>
-      <c r="O66" s="17">
+      <c r="O79" s="17">
         <f t="shared" si="4"/>
         <v>-75</v>
       </c>
-      <c r="P66" s="12">
+      <c r="P79" s="12">
         <f t="shared" si="5"/>
         <v>-7.8534031413612565E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
         <v>43665</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B80" t="s">
         <v>108</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C80" t="s">
         <v>109</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D80" t="s">
         <v>110</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E80" t="s">
         <v>87</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F80" t="s">
         <v>156</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G80" t="s">
         <v>43</v>
       </c>
-      <c r="H67">
+      <c r="H80">
         <v>200</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I80" s="17">
         <v>33</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J80" s="17">
         <v>6600</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K80" t="s">
         <v>112</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L80" s="17">
         <v>70.720001220703125</v>
       </c>
-      <c r="M67" s="17">
-        <f t="shared" ref="M67:M98" si="6">H67*L67</f>
+      <c r="M80" s="17">
+        <f t="shared" ref="M80:M111" si="6">H80*L80</f>
         <v>14144.000244140625</v>
       </c>
-      <c r="N67" s="17">
+      <c r="N80" s="17">
         <v>0</v>
       </c>
-      <c r="O67" s="17">
-        <f t="shared" ref="O67:O98" si="7">M67-J67</f>
+      <c r="O80" s="17">
+        <f t="shared" ref="O80:O111" si="7">M80-J80</f>
         <v>7544.000244140625</v>
       </c>
-      <c r="P67" s="12">
-        <f t="shared" ref="P67:P98" si="8">O67/J67</f>
+      <c r="P80" s="12">
+        <f t="shared" ref="P80:P111" si="8">O80/J80</f>
         <v>1.1430303400213069</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
         <v>43656</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B81" t="s">
         <v>108</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C81" t="s">
         <v>109</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D81" t="s">
         <v>110</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E81" t="s">
         <v>16</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F81" t="s">
         <v>139</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G81" t="s">
         <v>116</v>
       </c>
-      <c r="H68">
+      <c r="H81">
         <v>20</v>
       </c>
-      <c r="I68" s="17">
+      <c r="I81" s="17">
         <v>97.8</v>
       </c>
-      <c r="J68" s="17">
+      <c r="J81" s="17">
         <v>1956</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K81" t="s">
         <v>112</v>
       </c>
-      <c r="L68" s="17">
+      <c r="L81" s="17">
         <v>88</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M81" s="17">
         <f t="shared" si="6"/>
         <v>1760</v>
       </c>
-      <c r="N68" s="17">
+      <c r="N81" s="17">
         <v>184.93232018</v>
       </c>
-      <c r="O68" s="17">
+      <c r="O81" s="17">
         <f t="shared" si="7"/>
         <v>-196</v>
       </c>
-      <c r="P68" s="12">
+      <c r="P81" s="12">
         <f t="shared" si="8"/>
         <v>-0.10020449897750511</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
         <v>43656</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B82" t="s">
         <v>108</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C82" t="s">
         <v>109</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D82" t="s">
         <v>110</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E82" t="s">
         <v>18</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F82" t="s">
         <v>121</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G82" t="s">
         <v>116</v>
       </c>
-      <c r="H69">
+      <c r="H82">
         <v>5</v>
       </c>
-      <c r="I69" s="17">
+      <c r="I82" s="17">
         <v>256</v>
       </c>
-      <c r="J69" s="17">
+      <c r="J82" s="17">
         <v>1280</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K82" t="s">
         <v>112</v>
       </c>
-      <c r="L69" s="17">
+      <c r="L82" s="17">
         <v>216.0299987792969</v>
       </c>
-      <c r="M69" s="17">
+      <c r="M82" s="17">
         <f t="shared" si="6"/>
         <v>1080.1499938964846</v>
       </c>
-      <c r="N69" s="17">
+      <c r="N82" s="17">
         <v>82.05</v>
       </c>
-      <c r="O69" s="17">
+      <c r="O82" s="17">
         <f t="shared" si="7"/>
         <v>-199.8500061035154</v>
       </c>
-      <c r="P69" s="12">
+      <c r="P82" s="12">
         <f t="shared" si="8"/>
         <v>-0.15613281726837142</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
         <v>43656</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B83" t="s">
         <v>108</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C83" t="s">
         <v>109</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D83" t="s">
         <v>110</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E83" t="s">
         <v>34</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F83" t="s">
         <v>141</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G83" t="s">
         <v>116</v>
       </c>
-      <c r="H70">
+      <c r="H83">
         <v>10</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I83" s="17">
         <v>151.5</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J83" s="17">
         <v>1515</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K83" t="s">
         <v>112</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L83" s="17">
         <v>159.88999938964841</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M83" s="17">
         <f t="shared" si="6"/>
         <v>1598.8999938964841</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N83" s="17">
         <v>131.1</v>
       </c>
-      <c r="O70" s="17">
+      <c r="O83" s="17">
         <f t="shared" si="7"/>
         <v>83.899993896484148</v>
       </c>
-      <c r="P70" s="12">
+      <c r="P83" s="12">
         <f t="shared" si="8"/>
         <v>5.5379533925072041E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
         <v>43654</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B84" t="s">
         <v>108</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C84" t="s">
         <v>109</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D84" t="s">
         <v>110</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E84" t="s">
         <v>29</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F84" t="s">
         <v>157</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G84" t="s">
         <v>116</v>
       </c>
-      <c r="H71">
+      <c r="H84">
         <v>10</v>
       </c>
-      <c r="I71" s="17">
+      <c r="I84" s="17">
         <v>151.5</v>
       </c>
-      <c r="J71" s="17">
+      <c r="J84" s="17">
         <v>1515</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K84" t="s">
         <v>112</v>
       </c>
-      <c r="L71" s="17">
+      <c r="L84" s="17">
         <v>178.30000305175781</v>
       </c>
-      <c r="M71" s="17">
+      <c r="M84" s="17">
         <f t="shared" si="6"/>
         <v>1783.0000305175781</v>
       </c>
-      <c r="N71" s="17">
+      <c r="N84" s="17">
         <v>164.3</v>
       </c>
-      <c r="O71" s="17">
+      <c r="O84" s="17">
         <f t="shared" si="7"/>
         <v>268.00003051757813</v>
       </c>
-      <c r="P71" s="12">
+      <c r="P84" s="12">
         <f t="shared" si="8"/>
         <v>0.17689770991259282</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
         <v>43630</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B85" t="s">
         <v>108</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C85" t="s">
         <v>109</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D85" t="s">
         <v>158</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E85" t="s">
         <v>74</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F85" t="s">
         <v>159</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G85" t="s">
         <v>43</v>
       </c>
-      <c r="H72">
+      <c r="H85">
         <v>30</v>
       </c>
-      <c r="I72" s="17">
+      <c r="I85" s="17">
         <f>95.1/3</f>
         <v>31.7</v>
       </c>
-      <c r="J72" s="17">
+      <c r="J85" s="17">
         <v>951</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K85" t="s">
         <v>112</v>
       </c>
-      <c r="L72" s="17">
+      <c r="L85" s="17">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M85" s="17">
         <f t="shared" si="6"/>
         <v>199.19999599456787</v>
       </c>
-      <c r="N72" s="17">
+      <c r="N85" s="17">
         <v>5.4334466225699991</v>
       </c>
-      <c r="O72" s="17">
+      <c r="O85" s="17">
         <f t="shared" si="7"/>
         <v>-751.80000400543213</v>
       </c>
-      <c r="P72" s="12">
+      <c r="P85" s="12">
         <f t="shared" si="8"/>
         <v>-0.79053628181433455</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
         <v>43630</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B86" t="s">
         <v>108</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C86" t="s">
         <v>109</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D86" t="s">
         <v>110</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E86" t="s">
         <v>76</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F86" t="s">
         <v>160</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G86" t="s">
         <v>43</v>
       </c>
-      <c r="H73">
+      <c r="H86">
         <v>100</v>
       </c>
-      <c r="I73" s="17">
+      <c r="I86" s="17">
         <v>33.6</v>
       </c>
-      <c r="J73" s="17">
+      <c r="J86" s="17">
         <v>3360</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K86" t="s">
         <v>112</v>
       </c>
-      <c r="L73" s="17">
+      <c r="L86" s="17">
         <v>27.760000228881839</v>
       </c>
-      <c r="M73" s="17">
+      <c r="M86" s="17">
         <f t="shared" si="6"/>
         <v>2776.000022888184</v>
       </c>
-      <c r="N73" s="17">
+      <c r="N86" s="17">
         <v>207.69659999999999</v>
       </c>
-      <c r="O73" s="17">
+      <c r="O86" s="17">
         <f t="shared" si="7"/>
         <v>-583.99997711181595</v>
       </c>
-      <c r="P73" s="12">
+      <c r="P86" s="12">
         <f t="shared" si="8"/>
         <v>-0.17380951699756428</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>43629</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B87" t="s">
         <v>108</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C87" t="s">
         <v>109</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D87" t="s">
         <v>110</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E87" t="s">
         <v>59</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F87" t="s">
         <v>161</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G87" t="s">
         <v>43</v>
       </c>
-      <c r="H74">
+      <c r="H87">
         <v>100</v>
       </c>
-      <c r="I74" s="17">
+      <c r="I87" s="17">
         <v>23.2</v>
       </c>
-      <c r="J74" s="17">
+      <c r="J87" s="17">
         <v>2320</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K87" t="s">
         <v>112</v>
       </c>
-      <c r="L74" s="17">
+      <c r="L87" s="17">
         <v>13.22999954223633</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M87" s="17">
         <f t="shared" si="6"/>
         <v>1322.999954223633</v>
       </c>
-      <c r="N74" s="17">
+      <c r="N87" s="17">
         <v>103.9952583</v>
       </c>
-      <c r="O74" s="17">
+      <c r="O87" s="17">
         <f t="shared" si="7"/>
         <v>-997.00004577636696</v>
       </c>
-      <c r="P74" s="12">
+      <c r="P87" s="12">
         <f t="shared" si="8"/>
         <v>-0.42974139904153746</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
         <v>43622</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B88" t="s">
         <v>108</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C88" t="s">
         <v>109</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D88" t="s">
         <v>158</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E88" t="s">
         <v>74</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F88" t="s">
         <v>159</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G88" t="s">
         <v>43</v>
       </c>
-      <c r="H75">
+      <c r="H88">
         <v>30</v>
       </c>
-      <c r="I75" s="17">
+      <c r="I88" s="17">
         <f>96.2/3</f>
         <v>32.06666666666667</v>
       </c>
-      <c r="J75" s="17">
+      <c r="J88" s="17">
         <v>962</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K88" t="s">
         <v>112</v>
       </c>
-      <c r="L75" s="17">
+      <c r="L88" s="17">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M75" s="17">
+      <c r="M88" s="17">
         <f t="shared" si="6"/>
         <v>199.19999599456787</v>
       </c>
-      <c r="N75" s="17">
+      <c r="N88" s="17">
         <v>5.4334466225699991</v>
       </c>
-      <c r="O75" s="17">
+      <c r="O88" s="17">
         <f t="shared" si="7"/>
         <v>-762.80000400543213</v>
       </c>
-      <c r="P75" s="12">
+      <c r="P88" s="12">
         <f t="shared" si="8"/>
         <v>-0.79293139709504379</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
         <v>43619</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B89" t="s">
         <v>108</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C89" t="s">
         <v>109</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D89" t="s">
         <v>158</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E89" t="s">
         <v>74</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F89" t="s">
         <v>159</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G89" t="s">
         <v>43</v>
       </c>
-      <c r="H76">
+      <c r="H89">
         <v>90</v>
       </c>
-      <c r="I76" s="17">
+      <c r="I89" s="17">
         <f>99.8/2</f>
         <v>49.9</v>
       </c>
-      <c r="J76" s="17">
+      <c r="J89" s="17">
         <v>2994</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K89" t="s">
         <v>112</v>
       </c>
-      <c r="L76" s="17">
+      <c r="L89" s="17">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M89" s="17">
         <f t="shared" si="6"/>
         <v>597.59998798370361</v>
       </c>
-      <c r="N76" s="17">
+      <c r="N89" s="17">
         <v>16.300339867710001</v>
       </c>
-      <c r="O76" s="17">
+      <c r="O89" s="17">
         <f t="shared" si="7"/>
         <v>-2396.4000120162964</v>
       </c>
-      <c r="P76" s="12">
+      <c r="P89" s="12">
         <f t="shared" si="8"/>
         <v>-0.80040080561666549</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
         <v>43579</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B90" t="s">
         <v>108</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C90" t="s">
         <v>109</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D90" t="s">
         <v>110</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E90" t="s">
         <v>77</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F90" t="s">
         <v>146</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G90" t="s">
         <v>43</v>
       </c>
-      <c r="H77">
+      <c r="H90">
         <v>100</v>
       </c>
-      <c r="I77" s="17">
+      <c r="I90" s="17">
         <v>19.72</v>
       </c>
-      <c r="J77" s="17">
+      <c r="J90" s="17">
         <v>1972</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K90" t="s">
         <v>112</v>
       </c>
-      <c r="L77" s="17">
+      <c r="L90" s="17">
         <v>26.829999923706051</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M90" s="17">
         <f t="shared" si="6"/>
         <v>2682.999992370605</v>
       </c>
-      <c r="N77" s="17">
+      <c r="N90" s="17">
         <v>54.284085999999988</v>
       </c>
-      <c r="O77" s="17">
+      <c r="O90" s="17">
         <f t="shared" si="7"/>
         <v>710.99999237060501</v>
       </c>
-      <c r="P77" s="12">
+      <c r="P90" s="12">
         <f t="shared" si="8"/>
         <v>0.36054766347393763</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
         <v>43546</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C91" t="s">
         <v>109</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D91" t="s">
         <v>110</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E91" t="s">
         <v>55</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F91" t="s">
         <v>142</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G91" t="s">
         <v>43</v>
       </c>
-      <c r="H78">
+      <c r="H91">
         <v>400</v>
       </c>
-      <c r="I78" s="17">
+      <c r="I91" s="17">
         <v>26.1</v>
       </c>
-      <c r="J78" s="17">
+      <c r="J91" s="17">
         <v>10440</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K91" t="s">
         <v>112</v>
       </c>
-      <c r="L78" s="17">
+      <c r="L91" s="17">
         <v>28.010000228881839</v>
       </c>
-      <c r="M78" s="17">
+      <c r="M91" s="17">
         <f t="shared" si="6"/>
         <v>11204.000091552736</v>
       </c>
-      <c r="N78" s="17">
+      <c r="N91" s="17">
         <v>1473.9663252</v>
       </c>
-      <c r="O78" s="17">
+      <c r="O91" s="17">
         <f t="shared" si="7"/>
         <v>764.00009155273619</v>
       </c>
-      <c r="P78" s="12">
+      <c r="P91" s="12">
         <f t="shared" si="8"/>
         <v>7.3180085397771669E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>43545</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B92" t="s">
         <v>108</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C92" t="s">
         <v>109</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D92" t="s">
         <v>110</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E92" t="s">
         <v>76</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F92" t="s">
         <v>160</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G92" t="s">
         <v>43</v>
       </c>
-      <c r="H79">
+      <c r="H92">
         <v>100</v>
       </c>
-      <c r="I79" s="17">
+      <c r="I92" s="17">
         <v>34.200000000000003</v>
       </c>
-      <c r="J79" s="17">
+      <c r="J92" s="17">
         <v>3420</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K92" t="s">
         <v>112</v>
       </c>
-      <c r="L79" s="17">
+      <c r="L92" s="17">
         <v>27.760000228881839</v>
       </c>
-      <c r="M79" s="17">
+      <c r="M92" s="17">
         <f t="shared" si="6"/>
         <v>2776.000022888184</v>
       </c>
-      <c r="N79" s="17">
+      <c r="N92" s="17">
         <v>212.19659999999999</v>
       </c>
-      <c r="O79" s="17">
+      <c r="O92" s="17">
         <f t="shared" si="7"/>
         <v>-643.99997711181595</v>
       </c>
-      <c r="P79" s="12">
+      <c r="P92" s="12">
         <f t="shared" si="8"/>
         <v>-0.18830408687479999</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
         <v>43544</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B93" t="s">
         <v>108</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C93" t="s">
         <v>109</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D93" t="s">
         <v>110</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E93" t="s">
         <v>76</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F93" t="s">
         <v>160</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G93" t="s">
         <v>43</v>
       </c>
-      <c r="H80">
+      <c r="H93">
         <v>200</v>
       </c>
-      <c r="I80" s="17">
+      <c r="I93" s="17">
         <v>35.799999999999997</v>
       </c>
-      <c r="J80" s="17">
+      <c r="J93" s="17">
         <v>7160</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K93" t="s">
         <v>112</v>
       </c>
-      <c r="L80" s="17">
+      <c r="L93" s="17">
         <v>27.760000228881839</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M93" s="17">
         <f t="shared" si="6"/>
         <v>5552.0000457763681</v>
       </c>
-      <c r="N80" s="17">
+      <c r="N93" s="17">
         <v>424.39319999999998</v>
       </c>
-      <c r="O80" s="17">
+      <c r="O93" s="17">
         <f t="shared" si="7"/>
         <v>-1607.9999542236319</v>
       </c>
-      <c r="P80" s="12">
+      <c r="P93" s="12">
         <f t="shared" si="8"/>
         <v>-0.22458099919324467</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
         <v>43537</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B94" t="s">
         <v>108</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C94" t="s">
         <v>109</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D94" t="s">
         <v>110</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E94" t="s">
         <v>191</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F94" t="s">
         <v>162</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G94" t="s">
         <v>43</v>
       </c>
-      <c r="H81">
+      <c r="H94">
         <v>1000</v>
       </c>
-      <c r="I81" s="17">
+      <c r="I94" s="17">
         <v>11</v>
       </c>
-      <c r="J81" s="17">
+      <c r="J94" s="17">
         <v>11000</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K94" t="s">
         <v>112</v>
       </c>
-      <c r="L81" s="17">
+      <c r="L94" s="17">
         <v>16.479999542236332</v>
       </c>
-      <c r="M81" s="17">
+      <c r="M94" s="17">
         <f t="shared" si="6"/>
         <v>16479.999542236332</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N94" s="17">
         <v>1775.8843397144999</v>
       </c>
-      <c r="O81" s="17">
+      <c r="O94" s="17">
         <f t="shared" si="7"/>
         <v>5479.9995422363318</v>
       </c>
-      <c r="P81" s="12">
+      <c r="P94" s="12">
         <f t="shared" si="8"/>
         <v>0.49818177656693924</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
         <v>43530</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B95" t="s">
         <v>108</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C95" t="s">
         <v>109</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D95" t="s">
         <v>110</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E95" t="s">
         <v>74</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F95" t="s">
         <v>159</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G95" t="s">
         <v>43</v>
       </c>
-      <c r="H82">
+      <c r="H95">
         <v>600</v>
       </c>
-      <c r="I82" s="17">
+      <c r="I95" s="17">
         <f>89.5/3</f>
         <v>29.833333333333332</v>
       </c>
-      <c r="J82" s="17">
+      <c r="J95" s="17">
         <v>17900</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K95" t="s">
         <v>112</v>
       </c>
-      <c r="L82" s="17">
+      <c r="L95" s="17">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M95" s="17">
         <f t="shared" si="6"/>
         <v>3983.9999198913574</v>
       </c>
-      <c r="N82" s="17">
+      <c r="N95" s="17">
         <v>567.85447254379994</v>
       </c>
-      <c r="O82" s="17">
+      <c r="O95" s="17">
         <f t="shared" si="7"/>
         <v>-13916.000080108643</v>
       </c>
-      <c r="P82" s="12">
+      <c r="P95" s="12">
         <f t="shared" si="8"/>
         <v>-0.77743017207310849</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
         <v>43524</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B96" t="s">
         <v>108</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C96" t="s">
         <v>109</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D96" t="s">
         <v>110</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E96" t="s">
         <v>55</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F96" t="s">
         <v>142</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G96" t="s">
         <v>43</v>
       </c>
-      <c r="H83">
+      <c r="H96">
         <v>400</v>
       </c>
-      <c r="I83" s="17">
+      <c r="I96" s="17">
         <v>27.35</v>
       </c>
-      <c r="J83" s="17">
+      <c r="J96" s="17">
         <v>10940</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K96" t="s">
         <v>112</v>
       </c>
-      <c r="L83" s="17">
+      <c r="L96" s="17">
         <v>28.010000228881839</v>
       </c>
-      <c r="M83" s="17">
+      <c r="M96" s="17">
         <f t="shared" si="6"/>
         <v>11204.000091552736</v>
       </c>
-      <c r="N83" s="17">
+      <c r="N96" s="17">
         <v>1473.9663252</v>
       </c>
-      <c r="O83" s="17">
+      <c r="O96" s="17">
         <f t="shared" si="7"/>
         <v>264.00009155273619</v>
       </c>
-      <c r="P83" s="12">
+      <c r="P96" s="12">
         <f t="shared" si="8"/>
         <v>2.4131635425295814E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
         <v>43523</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B97" t="s">
         <v>108</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C97" t="s">
         <v>109</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D97" t="s">
         <v>110</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E97" t="s">
         <v>75</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F97" t="s">
         <v>163</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G97" t="s">
         <v>43</v>
       </c>
-      <c r="H84">
+      <c r="H97">
         <v>900</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I97" s="17">
         <v>12.65</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J97" s="17">
         <v>11385</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K97" t="s">
         <v>112</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L97" s="17">
         <v>10.60000038146973</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M97" s="17">
         <f t="shared" si="6"/>
         <v>9540.0003433227575</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N97" s="17">
         <v>842.71275000000026</v>
       </c>
-      <c r="O84" s="17">
+      <c r="O97" s="17">
         <f t="shared" si="7"/>
         <v>-1844.9996566772425</v>
       </c>
-      <c r="P84" s="12">
+      <c r="P97" s="12">
         <f t="shared" si="8"/>
         <v>-0.16205530581266953</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
         <v>43515</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B98" t="s">
         <v>108</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C98" t="s">
         <v>109</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D98" t="s">
         <v>110</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E98" t="s">
         <v>74</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F98" t="s">
         <v>159</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G98" t="s">
         <v>43</v>
       </c>
-      <c r="H85">
+      <c r="H98">
         <v>300</v>
       </c>
-      <c r="I85" s="17">
+      <c r="I98" s="17">
         <f>91.2/3</f>
         <v>30.400000000000002</v>
       </c>
-      <c r="J85" s="17">
+      <c r="J98" s="17">
         <v>9120</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K98" t="s">
         <v>112</v>
       </c>
-      <c r="L85" s="17">
+      <c r="L98" s="17">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M85" s="17">
+      <c r="M98" s="17">
         <f t="shared" si="6"/>
         <v>1991.9999599456787</v>
       </c>
-      <c r="N85" s="17">
+      <c r="N98" s="17">
         <v>283.92723627189997</v>
       </c>
-      <c r="O85" s="17">
+      <c r="O98" s="17">
         <f t="shared" si="7"/>
         <v>-7128.0000400543213</v>
       </c>
-      <c r="P85" s="12">
+      <c r="P98" s="12">
         <f t="shared" si="8"/>
         <v>-0.7815789517603422</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
         <v>43496</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C99" t="s">
         <v>109</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D99" t="s">
         <v>110</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E99" t="s">
         <v>90</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F99" t="s">
         <v>164</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G99" t="s">
         <v>43</v>
       </c>
-      <c r="H86">
+      <c r="H99">
         <v>100</v>
       </c>
-      <c r="I86" s="17">
+      <c r="I99" s="17">
         <v>46</v>
       </c>
-      <c r="J86" s="17">
+      <c r="J99" s="17">
         <v>4600</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K99" t="s">
         <v>112</v>
       </c>
-      <c r="L86" s="17">
+      <c r="L99" s="17">
         <v>93.889999389648438</v>
       </c>
-      <c r="M86" s="17">
+      <c r="M99" s="17">
         <f t="shared" si="6"/>
         <v>9388.9999389648438</v>
       </c>
-      <c r="N86" s="17">
+      <c r="N99" s="17">
         <v>346.01147136499998</v>
       </c>
-      <c r="O86" s="17">
+      <c r="O99" s="17">
         <f t="shared" si="7"/>
         <v>4788.9999389648438</v>
       </c>
-      <c r="P86" s="12">
+      <c r="P99" s="12">
         <f t="shared" si="8"/>
         <v>1.0410869432532268</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
         <v>43402</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B100" t="s">
         <v>108</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C100" t="s">
         <v>109</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D100" t="s">
         <v>110</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E100" t="s">
         <v>53</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F100" t="s">
         <v>111</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G100" t="s">
         <v>43</v>
       </c>
-      <c r="H87">
+      <c r="H100">
         <v>100</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I100" s="17">
         <v>43</v>
       </c>
-      <c r="J87" s="17">
+      <c r="J100" s="17">
         <v>4300</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K100" t="s">
         <v>112</v>
       </c>
-      <c r="L87">
+      <c r="L100">
         <v>33.75</v>
       </c>
-      <c r="M87" s="17">
+      <c r="M100" s="17">
         <f t="shared" si="6"/>
         <v>3375</v>
       </c>
-      <c r="N87" s="17">
+      <c r="N100" s="17">
         <v>388.90357883674989</v>
       </c>
-      <c r="O87" s="17">
+      <c r="O100" s="17">
         <f t="shared" si="7"/>
         <v>-925</v>
       </c>
-      <c r="P87" s="12">
+      <c r="P100" s="12">
         <f t="shared" si="8"/>
         <v>-0.21511627906976744</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
         <v>43402</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B101" t="s">
         <v>108</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C101" t="s">
         <v>109</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D101" t="s">
         <v>110</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E101" t="s">
         <v>63</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F101" t="s">
         <v>165</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G101" t="s">
         <v>43</v>
       </c>
-      <c r="H88">
+      <c r="H101">
         <v>100</v>
       </c>
-      <c r="I88" s="17">
+      <c r="I101" s="17">
         <v>12.2</v>
       </c>
-      <c r="J88" s="17">
+      <c r="J101" s="17">
         <v>1220</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K101" t="s">
         <v>112</v>
       </c>
-      <c r="L88">
+      <c r="L101">
         <v>13.52999973297119</v>
       </c>
-      <c r="M88" s="17">
+      <c r="M101" s="17">
         <f t="shared" si="6"/>
         <v>1352.9999732971189</v>
       </c>
-      <c r="N88" s="17">
+      <c r="N101" s="17">
         <v>105.61236952180001</v>
       </c>
-      <c r="O88" s="17">
+      <c r="O101" s="17">
         <f t="shared" si="7"/>
         <v>132.99997329711891</v>
       </c>
-      <c r="P88" s="12">
+      <c r="P101" s="12">
         <f t="shared" si="8"/>
         <v>0.10901637155501551</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
         <v>43250</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B102" t="s">
         <v>108</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C102" t="s">
         <v>109</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D102" t="s">
         <v>110</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E102" t="s">
         <v>82</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F102" t="s">
         <v>166</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G102" t="s">
         <v>43</v>
       </c>
-      <c r="H89">
+      <c r="H102">
         <v>100</v>
       </c>
-      <c r="I89" s="17">
+      <c r="I102" s="17">
         <v>18.39</v>
       </c>
-      <c r="J89" s="17">
+      <c r="J102" s="17">
         <v>1839</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K102" t="s">
         <v>112</v>
       </c>
-      <c r="L89">
+      <c r="L102">
         <v>28.440000534057621</v>
       </c>
-      <c r="M89" s="17">
+      <c r="M102" s="17">
         <f t="shared" si="6"/>
         <v>2844.0000534057622</v>
       </c>
-      <c r="N89" s="17">
+      <c r="N102" s="17">
         <v>152.73220000000001</v>
       </c>
-      <c r="O89" s="17">
+      <c r="O102" s="17">
         <f t="shared" si="7"/>
         <v>1005.0000534057622</v>
       </c>
-      <c r="P89" s="12">
+      <c r="P102" s="12">
         <f t="shared" si="8"/>
         <v>0.54649268809448737</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
         <v>43241</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B103" t="s">
         <v>108</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C103" t="s">
         <v>109</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D103" t="s">
         <v>110</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E103" t="s">
         <v>76</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F103" t="s">
         <v>160</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G103" t="s">
         <v>43</v>
       </c>
-      <c r="H90">
+      <c r="H103">
         <v>200</v>
       </c>
-      <c r="I90" s="17">
+      <c r="I103" s="17">
         <v>22.5</v>
       </c>
-      <c r="J90" s="17">
+      <c r="J103" s="17">
         <v>4500</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K103" t="s">
         <v>112</v>
       </c>
-      <c r="L90">
+      <c r="L103">
         <v>27.760000228881839</v>
       </c>
-      <c r="M90" s="17">
+      <c r="M103" s="17">
         <f t="shared" si="6"/>
         <v>5552.0000457763681</v>
       </c>
-      <c r="N90" s="17">
+      <c r="N103" s="17">
         <v>885.12253333333319</v>
       </c>
-      <c r="O90" s="17">
+      <c r="O103" s="17">
         <f t="shared" si="7"/>
         <v>1052.0000457763681</v>
       </c>
-      <c r="P90" s="12">
+      <c r="P103" s="12">
         <f t="shared" si="8"/>
         <v>0.23377778795030402</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
         <v>43229</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B104" t="s">
         <v>108</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C104" t="s">
         <v>109</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D104" t="s">
         <v>110</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E104" t="s">
         <v>61</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F104" t="s">
         <v>167</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G104" t="s">
         <v>43</v>
       </c>
-      <c r="H91">
+      <c r="H104">
         <v>200</v>
       </c>
-      <c r="I91" s="17">
+      <c r="I104" s="17">
         <v>16.350000000000001</v>
       </c>
-      <c r="J91" s="17">
+      <c r="J104" s="17">
         <v>3270</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K104" t="s">
         <v>112</v>
       </c>
-      <c r="L91">
+      <c r="L104">
         <v>29.620000839233398</v>
       </c>
-      <c r="M91" s="17">
+      <c r="M104" s="17">
         <f t="shared" si="6"/>
         <v>5924.0001678466797</v>
       </c>
-      <c r="N91" s="17">
+      <c r="N104" s="17">
         <v>547.32962593999991</v>
       </c>
-      <c r="O91" s="17">
+      <c r="O104" s="17">
         <f t="shared" si="7"/>
         <v>2654.0001678466797</v>
       </c>
-      <c r="P91" s="12">
+      <c r="P104" s="12">
         <f t="shared" si="8"/>
         <v>0.81162084643629351</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
         <v>43227</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B105" t="s">
         <v>108</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C105" t="s">
         <v>109</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D105" t="s">
         <v>110</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E105" t="s">
         <v>52</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F105" t="s">
         <v>168</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G105" t="s">
         <v>43</v>
       </c>
-      <c r="H92">
+      <c r="H105">
         <v>200</v>
       </c>
-      <c r="I92" s="17">
+      <c r="I105" s="17">
         <v>24</v>
       </c>
-      <c r="J92" s="17">
+      <c r="J105" s="17">
         <v>4800</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K105" t="s">
         <v>112</v>
       </c>
-      <c r="L92">
+      <c r="L105">
         <v>59.860000610351563</v>
       </c>
-      <c r="M92" s="17">
+      <c r="M105" s="17">
         <f t="shared" si="6"/>
         <v>11972.000122070313</v>
       </c>
-      <c r="N92" s="17">
+      <c r="N105" s="17">
         <v>720.06138229999999</v>
       </c>
-      <c r="O92" s="17">
+      <c r="O105" s="17">
         <f t="shared" si="7"/>
         <v>7172.0001220703125</v>
       </c>
-      <c r="P92" s="12">
+      <c r="P105" s="12">
         <f t="shared" si="8"/>
         <v>1.4941666920979817</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
         <v>43227</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B106" t="s">
         <v>108</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C106" t="s">
         <v>109</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D106" t="s">
         <v>110</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E106" t="s">
         <v>56</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F106" t="s">
         <v>169</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G106" t="s">
         <v>43</v>
       </c>
-      <c r="H93">
+      <c r="H106">
         <v>200</v>
       </c>
-      <c r="I93" s="17">
+      <c r="I106" s="17">
         <v>24.87</v>
       </c>
-      <c r="J93" s="17">
+      <c r="J106" s="17">
         <v>4974</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K106" t="s">
         <v>112</v>
       </c>
-      <c r="L93">
+      <c r="L106">
         <v>23.29999923706055</v>
       </c>
-      <c r="M93" s="17">
+      <c r="M106" s="17">
         <f t="shared" si="6"/>
         <v>4659.9998474121103</v>
       </c>
-      <c r="N93" s="17">
+      <c r="N106" s="17">
         <v>0</v>
       </c>
-      <c r="O93" s="17">
+      <c r="O106" s="17">
         <f t="shared" si="7"/>
         <v>-314.00015258788972</v>
       </c>
-      <c r="P93" s="12">
+      <c r="P106" s="12">
         <f t="shared" si="8"/>
         <v>-6.3128297665438218E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
         <v>43227</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C107" t="s">
         <v>109</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D107" t="s">
         <v>110</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E107" t="s">
         <v>76</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F107" t="s">
         <v>170</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G107" t="s">
         <v>43</v>
       </c>
-      <c r="H94">
+      <c r="H107">
         <v>200</v>
       </c>
-      <c r="I94" s="17">
+      <c r="I107" s="17">
         <v>23.6</v>
       </c>
-      <c r="J94" s="17">
+      <c r="J107" s="17">
         <v>4720</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K107" t="s">
         <v>112</v>
       </c>
-      <c r="L94">
+      <c r="L107">
         <v>27.760000228881839</v>
       </c>
-      <c r="M94" s="17">
+      <c r="M107" s="17">
         <f t="shared" si="6"/>
         <v>5552.0000457763681</v>
       </c>
-      <c r="N94" s="17">
+      <c r="N107" s="17">
         <v>885.12253333333319</v>
       </c>
-      <c r="O94" s="17">
+      <c r="O107" s="17">
         <f t="shared" si="7"/>
         <v>832.0000457763681</v>
       </c>
-      <c r="P94" s="12">
+      <c r="P107" s="12">
         <f t="shared" si="8"/>
         <v>0.17627119613906103</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
         <v>43201</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B108" t="s">
         <v>108</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C108" t="s">
         <v>109</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D108" t="s">
         <v>110</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E108" t="s">
         <v>80</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F108" t="s">
         <v>140</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G108" t="s">
         <v>43</v>
       </c>
-      <c r="H95">
+      <c r="H108">
         <v>100</v>
       </c>
-      <c r="I95" s="17">
+      <c r="I108" s="17">
         <v>15.03</v>
       </c>
-      <c r="J95" s="17">
+      <c r="J108" s="17">
         <v>1503</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K108" t="s">
         <v>112</v>
       </c>
-      <c r="L95">
+      <c r="L108">
         <v>19.29999923706055</v>
       </c>
-      <c r="M95" s="17">
+      <c r="M108" s="17">
         <f t="shared" si="6"/>
         <v>1929.9999237060551</v>
       </c>
-      <c r="N95" s="17">
+      <c r="N108" s="17">
         <v>268.76415404090739</v>
       </c>
-      <c r="O95" s="17">
+      <c r="O108" s="17">
         <f t="shared" si="7"/>
         <v>426.99992370605514</v>
       </c>
-      <c r="P95" s="12">
+      <c r="P108" s="12">
         <f t="shared" si="8"/>
         <v>0.28409841896610455</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
         <v>43194</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B109" t="s">
         <v>108</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C109" t="s">
         <v>109</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D109" t="s">
         <v>110</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E109" t="s">
         <v>78</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F109" t="s">
         <v>150</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G109" t="s">
         <v>43</v>
       </c>
-      <c r="H96">
+      <c r="H109">
         <v>3200</v>
       </c>
-      <c r="I96" s="17">
+      <c r="I109" s="17">
         <v>2.9375</v>
       </c>
-      <c r="J96" s="17">
+      <c r="J109" s="17">
         <v>9400</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K109" t="s">
         <v>112</v>
       </c>
-      <c r="L96">
+      <c r="L109">
         <v>25.909999847412109</v>
       </c>
-      <c r="M96" s="17">
+      <c r="M109" s="17">
         <f t="shared" si="6"/>
         <v>82911.99951171875</v>
       </c>
-      <c r="N96" s="17">
+      <c r="N109" s="17">
         <v>263.57430985299999</v>
       </c>
-      <c r="O96" s="17">
+      <c r="O109" s="17">
         <f t="shared" si="7"/>
         <v>73511.99951171875</v>
       </c>
-      <c r="P96" s="12">
+      <c r="P109" s="12">
         <f t="shared" si="8"/>
         <v>7.8204254799700799</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
         <v>43187</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B110" t="s">
         <v>108</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C110" t="s">
         <v>109</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D110" t="s">
         <v>110</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E110" t="s">
         <v>82</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F110" t="s">
         <v>171</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G110" t="s">
         <v>43</v>
       </c>
-      <c r="H97">
+      <c r="H110">
         <v>100</v>
       </c>
-      <c r="I97" s="17">
+      <c r="I110" s="17">
         <v>21</v>
       </c>
-      <c r="J97" s="17">
+      <c r="J110" s="17">
         <v>2100</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K110" t="s">
         <v>112</v>
       </c>
-      <c r="L97">
+      <c r="L110">
         <v>28.440000534057621</v>
       </c>
-      <c r="M97" s="17">
+      <c r="M110" s="17">
         <f t="shared" si="6"/>
         <v>2844.0000534057622</v>
       </c>
-      <c r="N97" s="17">
+      <c r="N110" s="17">
         <v>156.98220000000001</v>
       </c>
-      <c r="O97" s="17">
+      <c r="O110" s="17">
         <f t="shared" si="7"/>
         <v>744.00005340576217</v>
       </c>
-      <c r="P97" s="12">
+      <c r="P110" s="12">
         <f t="shared" si="8"/>
         <v>0.35428573971702959</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
         <v>43186</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B111" t="s">
         <v>108</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C111" t="s">
         <v>109</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D111" t="s">
         <v>110</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E111" t="s">
         <v>57</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F111" t="s">
         <v>144</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G111" t="s">
         <v>43</v>
       </c>
-      <c r="H98">
+      <c r="H111">
         <v>100</v>
       </c>
-      <c r="I98" s="17">
+      <c r="I111" s="17">
         <v>46</v>
       </c>
-      <c r="J98" s="17">
+      <c r="J111" s="17">
         <v>4600</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K111" t="s">
         <v>112</v>
       </c>
-      <c r="L98">
+      <c r="L111">
         <v>30.219999313354489</v>
       </c>
-      <c r="M98" s="17">
+      <c r="M111" s="17">
         <f t="shared" si="6"/>
         <v>3021.9999313354488</v>
       </c>
-      <c r="N98" s="17">
+      <c r="N111" s="17">
         <v>272.435808979228</v>
       </c>
-      <c r="O98" s="17">
+      <c r="O111" s="17">
         <f t="shared" si="7"/>
         <v>-1578.0000686645512</v>
       </c>
-      <c r="P98" s="12">
+      <c r="P111" s="12">
         <f t="shared" si="8"/>
         <v>-0.34304349318794591</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
         <v>43186</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B112" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C112" t="s">
         <v>109</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D112" t="s">
         <v>110</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E112" t="s">
         <v>77</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F112" t="s">
         <v>146</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G112" t="s">
         <v>43</v>
       </c>
-      <c r="H99">
+      <c r="H112">
         <v>200</v>
       </c>
-      <c r="I99" s="17">
+      <c r="I112" s="17">
         <v>9.4</v>
       </c>
-      <c r="J99" s="17">
+      <c r="J112" s="17">
         <v>1880</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K112" t="s">
         <v>112</v>
       </c>
-      <c r="L99">
+      <c r="L112">
         <v>26.829999923706051</v>
       </c>
-      <c r="M99" s="17">
-        <f t="shared" ref="M99:M130" si="9">H99*L99</f>
+      <c r="M112" s="17">
+        <f t="shared" ref="M112:M130" si="9">H112*L112</f>
         <v>5365.99998474121</v>
       </c>
-      <c r="N99" s="17">
+      <c r="N112" s="17">
         <v>117.9234228</v>
       </c>
-      <c r="O99" s="17">
-        <f t="shared" ref="O99:O117" si="10">M99-J99</f>
+      <c r="O112" s="17">
+        <f t="shared" ref="O112:O130" si="10">M112-J112</f>
         <v>3485.99998474121</v>
       </c>
-      <c r="P99" s="12">
-        <f t="shared" ref="P99:P130" si="11">O99/J99</f>
+      <c r="P112" s="12">
+        <f t="shared" ref="P112:P130" si="11">O112/J112</f>
         <v>1.8542553110325586</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
         <v>43186</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B113" t="s">
         <v>108</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C113" t="s">
         <v>109</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D113" t="s">
         <v>110</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E113" t="s">
         <v>83</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F113" t="s">
         <v>143</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G113" t="s">
         <v>43</v>
       </c>
-      <c r="H100">
+      <c r="H113">
         <v>100</v>
       </c>
-      <c r="I100" s="17">
+      <c r="I113" s="17">
         <v>28.5</v>
       </c>
-      <c r="J100" s="17">
+      <c r="J113" s="17">
         <v>2850</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K113" t="s">
         <v>112</v>
       </c>
-      <c r="L100">
+      <c r="L113">
         <v>66.900001525878906</v>
       </c>
-      <c r="M100" s="17">
+      <c r="M113" s="17">
         <f t="shared" si="9"/>
         <v>6690.0001525878906</v>
       </c>
-      <c r="N100" s="17">
+      <c r="N113" s="17">
         <v>87.938178114999985</v>
       </c>
-      <c r="O100" s="17">
+      <c r="O113" s="17">
         <f t="shared" si="10"/>
         <v>3840.0001525878906</v>
       </c>
-      <c r="P100" s="12">
+      <c r="P113" s="12">
         <f t="shared" si="11"/>
         <v>1.3473684745922423</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
         <v>43069</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B114" t="s">
         <v>108</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C114" t="s">
         <v>109</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D114" t="s">
         <v>110</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E114" t="s">
         <v>79</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F114" t="s">
         <v>172</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G114" t="s">
         <v>43</v>
       </c>
-      <c r="H101">
+      <c r="H114">
         <v>100</v>
       </c>
-      <c r="I101" s="17">
+      <c r="I114" s="17">
         <v>6.8</v>
       </c>
-      <c r="J101" s="17">
+      <c r="J114" s="17">
         <v>680</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K114" t="s">
         <v>112</v>
       </c>
-      <c r="L101">
+      <c r="L114">
         <v>18.879999160766602</v>
       </c>
-      <c r="M101" s="17">
+      <c r="M114" s="17">
         <f t="shared" si="9"/>
         <v>1887.9999160766602</v>
       </c>
-      <c r="N101" s="17">
+      <c r="N114" s="17">
         <v>63.004578160000001</v>
       </c>
-      <c r="O101" s="17">
+      <c r="O114" s="17">
         <f t="shared" si="10"/>
         <v>1207.9999160766602</v>
       </c>
-      <c r="P101" s="12">
+      <c r="P114" s="12">
         <f t="shared" si="11"/>
         <v>1.7764704648186178</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
         <v>43007</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B115" t="s">
         <v>108</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C115" t="s">
         <v>109</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D115" t="s">
         <v>110</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E115" t="s">
         <v>74</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F115" t="s">
         <v>173</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G115" t="s">
         <v>43</v>
       </c>
-      <c r="H102">
+      <c r="H115">
         <v>100</v>
       </c>
-      <c r="I102" s="17">
+      <c r="I115" s="17">
         <v>29.76</v>
       </c>
-      <c r="J102" s="17">
+      <c r="J115" s="17">
         <v>2976</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K115" t="s">
         <v>112</v>
       </c>
-      <c r="L102">
+      <c r="L115">
         <v>6.6399998664855957</v>
       </c>
-      <c r="M102" s="17">
+      <c r="M115" s="17">
         <f t="shared" si="9"/>
         <v>663.99998664855957</v>
       </c>
-      <c r="N102" s="17">
+      <c r="N115" s="17">
         <v>180.5061679356167</v>
       </c>
-      <c r="O102" s="17">
+      <c r="O115" s="17">
         <f t="shared" si="10"/>
         <v>-2312.0000133514404</v>
       </c>
-      <c r="P102" s="12">
+      <c r="P115" s="12">
         <f t="shared" si="11"/>
         <v>-0.77688172491647867</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
         <v>43000</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B116" t="s">
         <v>108</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C116" t="s">
         <v>109</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D116" t="s">
         <v>110</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E116" t="s">
         <v>64</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F116" t="s">
         <v>174</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G116" t="s">
         <v>43</v>
       </c>
-      <c r="H103">
+      <c r="H116">
         <v>100</v>
       </c>
-      <c r="I103" s="17">
+      <c r="I116" s="17">
         <v>16.399999999999999</v>
       </c>
-      <c r="J103" s="17">
+      <c r="J116" s="17">
         <v>1640</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K116" t="s">
         <v>112</v>
       </c>
-      <c r="L103">
+      <c r="L116">
         <v>20.14999961853027</v>
       </c>
-      <c r="M103" s="17">
+      <c r="M116" s="17">
         <f t="shared" si="9"/>
         <v>2014.9999618530269</v>
       </c>
-      <c r="N103" s="17">
+      <c r="N116" s="17">
         <v>75.026942902499997</v>
       </c>
-      <c r="O103" s="17">
+      <c r="O116" s="17">
         <f t="shared" si="10"/>
         <v>374.99996185302689</v>
       </c>
-      <c r="P103" s="12">
+      <c r="P116" s="12">
         <f t="shared" si="11"/>
         <v>0.22865851332501638</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
         <v>42997</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B117" t="s">
         <v>108</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C117" t="s">
         <v>109</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D117" t="s">
         <v>110</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E117" t="s">
         <v>71</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F117" t="s">
         <v>175</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G117" t="s">
         <v>43</v>
       </c>
-      <c r="H104">
+      <c r="H117">
         <v>200</v>
       </c>
-      <c r="I104" s="17">
+      <c r="I117" s="17">
         <v>5.9</v>
       </c>
-      <c r="J104" s="17">
+      <c r="J117" s="17">
         <v>1180</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K117" t="s">
         <v>112</v>
       </c>
-      <c r="L104">
+      <c r="L117">
         <v>10.94999980926514</v>
       </c>
-      <c r="M104" s="17">
+      <c r="M117" s="17">
         <f t="shared" si="9"/>
         <v>2189.9999618530283</v>
       </c>
-      <c r="N104" s="17">
+      <c r="N117" s="17">
         <v>92.000000000000014</v>
       </c>
-      <c r="O104" s="17">
+      <c r="O117" s="17">
         <f t="shared" si="10"/>
         <v>1009.9999618530283</v>
       </c>
-      <c r="P104" s="12">
+      <c r="P117" s="12">
         <f t="shared" si="11"/>
         <v>0.85593217106188835</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
         <v>42957</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B118" t="s">
         <v>108</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C118" t="s">
         <v>109</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D118" t="s">
         <v>110</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E118" t="s">
         <v>72</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F118" t="s">
         <v>176</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G118" t="s">
         <v>43</v>
       </c>
-      <c r="H105">
+      <c r="H118">
         <v>200</v>
       </c>
-      <c r="I105" s="17">
+      <c r="I118" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="J105" s="17">
+      <c r="J118" s="17">
         <v>440</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K118" t="s">
         <v>112</v>
       </c>
-      <c r="L105">
+      <c r="L118">
         <v>10.10000038146973</v>
       </c>
-      <c r="M105" s="17">
+      <c r="M118" s="17">
         <f t="shared" si="9"/>
         <v>2020.000076293946</v>
       </c>
-      <c r="N105" s="17">
+      <c r="N118" s="17">
         <v>0</v>
       </c>
-      <c r="O105" s="17">
+      <c r="O118" s="17">
         <f t="shared" si="10"/>
         <v>1580.000076293946</v>
       </c>
-      <c r="P105" s="12">
+      <c r="P118" s="12">
         <f t="shared" si="11"/>
         <v>3.5909092643044227</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
         <v>42956</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B119" t="s">
         <v>108</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C119" t="s">
         <v>109</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D119" t="s">
         <v>110</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E119" t="s">
         <v>79</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F119" t="s">
         <v>177</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G119" t="s">
         <v>43</v>
       </c>
-      <c r="H106">
+      <c r="H119">
         <v>100</v>
       </c>
-      <c r="I106" s="17">
+      <c r="I119" s="17">
         <v>9.85</v>
       </c>
-      <c r="J106" s="17">
+      <c r="J119" s="17">
         <v>985</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K119" t="s">
         <v>112</v>
       </c>
-      <c r="L106">
+      <c r="L119">
         <v>18.879999160766602</v>
       </c>
-      <c r="M106" s="17">
+      <c r="M119" s="17">
         <f t="shared" si="9"/>
         <v>1887.9999160766602</v>
       </c>
-      <c r="N106" s="17">
+      <c r="N119" s="17">
         <v>63.004578160000001</v>
       </c>
-      <c r="O106" s="17">
+      <c r="O119" s="17">
         <f t="shared" si="10"/>
         <v>902.99991607666016</v>
       </c>
-      <c r="P106" s="12">
+      <c r="P119" s="12">
         <f t="shared" si="11"/>
         <v>0.91675118383417276</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
         <v>42950</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B120" t="s">
         <v>108</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C120" t="s">
         <v>109</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D120" t="s">
         <v>110</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E120" t="s">
         <v>66</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F120" t="s">
         <v>178</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G120" t="s">
         <v>43</v>
       </c>
-      <c r="H107">
+      <c r="H120">
         <v>100</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I120" s="17">
         <v>34.5</v>
       </c>
-      <c r="J107" s="17">
+      <c r="J120" s="17">
         <v>3450</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K120" t="s">
         <v>112</v>
       </c>
-      <c r="L107">
+      <c r="L120">
         <v>19.89999961853027</v>
       </c>
-      <c r="M107" s="17">
+      <c r="M120" s="17">
         <f t="shared" si="9"/>
         <v>1989.9999618530269</v>
       </c>
-      <c r="N107" s="17">
+      <c r="N120" s="17">
         <v>106.43458465250001</v>
       </c>
-      <c r="O107" s="17">
+      <c r="O120" s="17">
         <f t="shared" si="10"/>
         <v>-1460.0000381469731</v>
       </c>
-      <c r="P107" s="12">
+      <c r="P120" s="12">
         <f t="shared" si="11"/>
         <v>-0.42318841685419512</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
         <v>42893</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B121" t="s">
         <v>108</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C121" t="s">
         <v>109</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D121" t="s">
         <v>110</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E121" t="s">
         <v>65</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F121" t="s">
         <v>179</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G121" t="s">
         <v>43</v>
       </c>
-      <c r="H108">
+      <c r="H121">
         <v>200</v>
       </c>
-      <c r="I108" s="17">
+      <c r="I121" s="17">
         <v>6.45</v>
       </c>
-      <c r="J108" s="17">
+      <c r="J121" s="17">
         <v>1290</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K121" t="s">
         <v>112</v>
       </c>
-      <c r="L108">
+      <c r="L121">
         <v>32.830001831054688</v>
       </c>
-      <c r="M108" s="17">
+      <c r="M121" s="17">
         <f t="shared" si="9"/>
         <v>6566.0003662109375</v>
       </c>
-      <c r="N108" s="17">
+      <c r="N121" s="17">
         <v>191.75716859280001</v>
       </c>
-      <c r="O108" s="17">
+      <c r="O121" s="17">
         <f t="shared" si="10"/>
         <v>5276.0003662109375</v>
       </c>
-      <c r="P108" s="12">
+      <c r="P121" s="12">
         <f t="shared" si="11"/>
         <v>4.0899227645046023</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
         <v>42816</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B122" t="s">
         <v>108</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C122" t="s">
         <v>109</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D122" t="s">
         <v>110</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E122" t="s">
         <v>60</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F122" t="s">
         <v>180</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G122" t="s">
         <v>43</v>
       </c>
-      <c r="H109">
+      <c r="H122">
         <v>100</v>
       </c>
-      <c r="I109" s="17">
+      <c r="I122" s="17">
         <v>17</v>
       </c>
-      <c r="J109" s="17">
+      <c r="J122" s="17">
         <v>1700</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K122" t="s">
         <v>112</v>
       </c>
-      <c r="L109">
+      <c r="L122">
         <v>12.460000038146971</v>
       </c>
-      <c r="M109" s="17">
+      <c r="M122" s="17">
         <f t="shared" si="9"/>
         <v>1246.000003814697</v>
       </c>
-      <c r="N109" s="17">
+      <c r="N122" s="17">
         <v>247.48731113262971</v>
       </c>
-      <c r="O109" s="17">
+      <c r="O122" s="17">
         <f t="shared" si="10"/>
         <v>-453.99999618530296</v>
       </c>
-      <c r="P109" s="12">
+      <c r="P122" s="12">
         <f t="shared" si="11"/>
         <v>-0.26705882128547231</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
         <v>42811</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B123" t="s">
         <v>108</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C123" t="s">
         <v>109</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D123" t="s">
         <v>110</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E123" t="s">
         <v>59</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F123" t="s">
         <v>181</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G123" t="s">
         <v>43</v>
       </c>
-      <c r="H110">
+      <c r="H123">
         <v>100</v>
       </c>
-      <c r="I110" s="17">
+      <c r="I123" s="17">
         <v>15.1</v>
       </c>
-      <c r="J110" s="17">
+      <c r="J123" s="17">
         <v>1510</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K123" t="s">
         <v>112</v>
       </c>
-      <c r="L110">
+      <c r="L123">
         <v>13.22999954223633</v>
       </c>
-      <c r="M110" s="17">
+      <c r="M123" s="17">
         <f t="shared" si="9"/>
         <v>1322.999954223633</v>
       </c>
-      <c r="N110" s="17">
+      <c r="N123" s="17">
         <v>287.3159789</v>
       </c>
-      <c r="O110" s="17">
+      <c r="O123" s="17">
         <f t="shared" si="10"/>
         <v>-187.00004577636696</v>
       </c>
-      <c r="P110" s="12">
+      <c r="P123" s="12">
         <f t="shared" si="11"/>
         <v>-0.12384108991812381</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
         <v>42808</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B124" t="s">
         <v>108</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C124" t="s">
         <v>109</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D124" t="s">
         <v>110</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E124" t="s">
         <v>62</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F124" t="s">
         <v>182</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G124" t="s">
         <v>43</v>
       </c>
-      <c r="H111">
+      <c r="H124">
         <v>100</v>
       </c>
-      <c r="I111" s="17">
+      <c r="I124" s="17">
         <v>26.65</v>
       </c>
-      <c r="J111" s="17">
+      <c r="J124" s="17">
         <v>2665</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K124" t="s">
         <v>112</v>
       </c>
-      <c r="L111">
+      <c r="L124">
         <v>3.660000085830688</v>
       </c>
-      <c r="M111" s="17">
+      <c r="M124" s="17">
         <f t="shared" si="9"/>
         <v>366.00000858306879</v>
       </c>
-      <c r="N111" s="17">
+      <c r="N124" s="17">
         <v>261.68526555570003</v>
       </c>
-      <c r="O111" s="17">
+      <c r="O124" s="17">
         <f t="shared" si="10"/>
         <v>-2298.9999914169312</v>
       </c>
-      <c r="P111" s="12">
+      <c r="P124" s="12">
         <f t="shared" si="11"/>
         <v>-0.86266416188252582</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
         <v>42803</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B125" t="s">
         <v>108</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C125" t="s">
         <v>109</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D125" t="s">
         <v>110</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E125" t="s">
         <v>85</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F125" t="s">
         <v>183</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G125" t="s">
         <v>43</v>
       </c>
-      <c r="H112">
+      <c r="H125">
         <v>100</v>
       </c>
-      <c r="I112" s="17">
+      <c r="I125" s="17">
         <v>13.1</v>
       </c>
-      <c r="J112" s="17">
+      <c r="J125" s="17">
         <v>1310</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K125" t="s">
         <v>112</v>
       </c>
-      <c r="L112">
+      <c r="L125">
         <v>4.3499999046325684</v>
       </c>
-      <c r="M112" s="17">
+      <c r="M125" s="17">
         <f t="shared" si="9"/>
         <v>434.99999046325684</v>
       </c>
-      <c r="N112" s="17">
+      <c r="N125" s="17">
         <v>63.988441742306669</v>
       </c>
-      <c r="O112" s="17">
+      <c r="O125" s="17">
         <f t="shared" si="10"/>
         <v>-875.00000953674316</v>
       </c>
-      <c r="P112" s="12">
+      <c r="P125" s="12">
         <f t="shared" si="11"/>
         <v>-0.66793893857766651</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
         <v>42790</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B126" t="s">
         <v>108</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C126" t="s">
         <v>109</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D126" t="s">
         <v>110</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E126" t="s">
         <v>52</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F126" t="s">
         <v>184</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G126" t="s">
         <v>43</v>
       </c>
-      <c r="H113">
+      <c r="H126">
         <v>100</v>
       </c>
-      <c r="I113" s="17">
+      <c r="I126" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="J113" s="17">
+      <c r="J126" s="17">
         <v>1890</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K126" t="s">
         <v>112</v>
       </c>
-      <c r="L113">
+      <c r="L126">
         <v>59.860000610351563</v>
       </c>
-      <c r="M113" s="17">
+      <c r="M126" s="17">
         <f t="shared" si="9"/>
         <v>5986.0000610351563</v>
       </c>
-      <c r="N113" s="17">
+      <c r="N126" s="17">
         <v>406.83169540000011</v>
       </c>
-      <c r="O113" s="17">
+      <c r="O126" s="17">
         <f t="shared" si="10"/>
         <v>4096.0000610351563</v>
       </c>
-      <c r="P113" s="12">
+      <c r="P126" s="12">
         <f t="shared" si="11"/>
         <v>2.1671957994895008</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
         <v>42790</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B127" t="s">
         <v>108</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C127" t="s">
         <v>109</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D127" t="s">
         <v>110</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E127" t="s">
         <v>81</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F127" t="s">
         <v>185</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G127" t="s">
         <v>43</v>
       </c>
-      <c r="H114">
+      <c r="H127">
         <v>100</v>
       </c>
-      <c r="I114" s="17">
+      <c r="I127" s="17">
         <v>24.9</v>
       </c>
-      <c r="J114" s="17">
+      <c r="J127" s="17">
         <v>2490</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K127" t="s">
         <v>112</v>
       </c>
-      <c r="L114">
+      <c r="L127">
         <v>53.299999237060547</v>
       </c>
-      <c r="M114" s="17">
+      <c r="M127" s="17">
         <f t="shared" si="9"/>
         <v>5329.9999237060547</v>
       </c>
-      <c r="N114" s="17">
+      <c r="N127" s="17">
         <v>105.7541780432</v>
       </c>
-      <c r="O114" s="17">
+      <c r="O127" s="17">
         <f t="shared" si="10"/>
         <v>2839.9999237060547</v>
       </c>
-      <c r="P114" s="12">
+      <c r="P127" s="12">
         <f t="shared" si="11"/>
         <v>1.1405622183558453</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
         <v>42790</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B128" t="s">
         <v>108</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C128" t="s">
         <v>109</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D128" t="s">
         <v>110</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E128" t="s">
         <v>82</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F128" t="s">
         <v>171</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G128" t="s">
         <v>43</v>
       </c>
-      <c r="H115">
+      <c r="H128">
         <v>200</v>
       </c>
-      <c r="I115" s="17">
+      <c r="I128" s="17">
         <v>15.35</v>
       </c>
-      <c r="J115" s="17">
+      <c r="J128" s="17">
         <v>3070</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K128" t="s">
         <v>112</v>
       </c>
-      <c r="L115">
+      <c r="L128">
         <v>28.440000534057621</v>
       </c>
-      <c r="M115" s="17">
+      <c r="M128" s="17">
         <f t="shared" si="9"/>
         <v>5688.0001068115243</v>
       </c>
-      <c r="N115" s="17">
+      <c r="N128" s="17">
         <v>313.96440000000001</v>
       </c>
-      <c r="O115" s="17">
+      <c r="O128" s="17">
         <f t="shared" si="10"/>
         <v>2618.0001068115243</v>
       </c>
-      <c r="P115" s="12">
+      <c r="P128" s="12">
         <f t="shared" si="11"/>
         <v>0.85276876443372129</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
         <v>42783</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B129" t="s">
         <v>108</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C129" t="s">
         <v>109</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D129" t="s">
         <v>110</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E129" t="s">
         <v>54</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F129" t="s">
         <v>186</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G129" t="s">
         <v>43</v>
       </c>
-      <c r="H116">
+      <c r="H129">
         <v>100</v>
       </c>
-      <c r="I116" s="17">
+      <c r="I129" s="17">
         <v>32.4</v>
       </c>
-      <c r="J116" s="17">
+      <c r="J129" s="17">
         <v>3240</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K129" t="s">
         <v>112</v>
       </c>
-      <c r="L116">
+      <c r="L129">
         <v>25.20000076293945</v>
       </c>
-      <c r="M116" s="17">
+      <c r="M129" s="17">
         <f t="shared" si="9"/>
         <v>2520.0000762939449</v>
       </c>
-      <c r="N116" s="17">
+      <c r="N129" s="17">
         <v>437.0167272499998</v>
       </c>
-      <c r="O116" s="17">
+      <c r="O129" s="17">
         <f t="shared" si="10"/>
         <v>-719.99992370605514</v>
       </c>
-      <c r="P116" s="12">
+      <c r="P129" s="12">
         <f t="shared" si="11"/>
         <v>-0.22222219867470838</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
         <v>42783</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B130" t="s">
         <v>108</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C130" t="s">
         <v>109</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D130" t="s">
         <v>110</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E130" t="s">
         <v>70</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F130" t="s">
         <v>187</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G130" t="s">
         <v>43</v>
       </c>
-      <c r="H117">
+      <c r="H130">
         <v>200</v>
       </c>
-      <c r="I117" s="17">
+      <c r="I130" s="17">
         <v>13.2</v>
       </c>
-      <c r="J117" s="17">
+      <c r="J130" s="17">
         <v>2640</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K130" t="s">
         <v>112</v>
       </c>
-      <c r="L117">
+      <c r="L130">
         <v>24.110000610351559</v>
       </c>
-      <c r="M117" s="17">
+      <c r="M130" s="17">
         <f t="shared" si="9"/>
         <v>4822.0001220703116</v>
       </c>
-      <c r="N117" s="17">
+      <c r="N130" s="17">
         <v>165.4</v>
       </c>
-      <c r="O117" s="17">
+      <c r="O130" s="17">
         <f t="shared" si="10"/>
         <v>2182.0001220703116</v>
       </c>
-      <c r="P117" s="12">
+      <c r="P130" s="12">
         <f t="shared" si="11"/>
         <v>0.82651519775390592</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L117" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A56:L96">
-      <sortCondition ref="E2:E117"/>
+  <autoFilter ref="A2:L130" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A69:L109">
+      <sortCondition ref="E2:E130"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
